--- a/database/industries/chemical/shamla/product/monthly.xlsx
+++ b/database/industries/chemical/shamla/product/monthly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\chemical\shamla\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317EB22A-6C89-44BA-9B6C-130E10AF49A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="76">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -36,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 7 منتهی به 1397/07</t>
-  </si>
-  <si>
     <t>ماه 8 منتهی به 1397/08</t>
   </si>
   <si>
@@ -184,6 +182,9 @@
   </si>
   <si>
     <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>پودر سولفات سدیم</t>
@@ -252,7 +253,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -445,7 +446,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -457,7 +458,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -504,6 +505,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -539,6 +557,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -690,17 +725,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -755,7 +790,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -812,7 +847,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -869,7 +904,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -924,7 +959,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -981,7 +1016,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1038,7 +1073,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1093,7 +1128,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1250,7 +1285,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1305,7 +1340,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1362,7 +1397,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1371,157 +1406,157 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>15403</v>
+        <v>15804</v>
       </c>
       <c r="F11" s="11">
-        <v>15804</v>
+        <v>15801</v>
       </c>
       <c r="G11" s="11">
-        <v>15801</v>
+        <v>15730</v>
       </c>
       <c r="H11" s="11">
-        <v>15730</v>
+        <v>15760</v>
       </c>
       <c r="I11" s="11">
-        <v>15760</v>
+        <v>15201</v>
       </c>
       <c r="J11" s="11">
-        <v>15201</v>
+        <v>15955</v>
       </c>
       <c r="K11" s="11">
-        <v>15955</v>
+        <v>16125</v>
       </c>
       <c r="L11" s="11">
-        <v>16125</v>
+        <v>15610</v>
       </c>
       <c r="M11" s="11">
-        <v>15610</v>
+        <v>14901</v>
       </c>
       <c r="N11" s="11">
-        <v>14901</v>
+        <v>15520</v>
       </c>
       <c r="O11" s="11">
+        <v>15635</v>
+      </c>
+      <c r="P11" s="11">
+        <v>15461</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>15661</v>
+      </c>
+      <c r="R11" s="11">
+        <v>15765</v>
+      </c>
+      <c r="S11" s="11">
+        <v>15971</v>
+      </c>
+      <c r="T11" s="11">
+        <v>15630</v>
+      </c>
+      <c r="U11" s="11">
+        <v>15101</v>
+      </c>
+      <c r="V11" s="11">
+        <v>16421</v>
+      </c>
+      <c r="W11" s="11">
+        <v>16455</v>
+      </c>
+      <c r="X11" s="11">
+        <v>16312</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>16119</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>15666</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>15164</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>13518</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>15652</v>
+      </c>
+      <c r="AD11" s="11">
         <v>15520</v>
       </c>
-      <c r="P11" s="11">
-        <v>15635</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>15461</v>
-      </c>
-      <c r="R11" s="11">
-        <v>15661</v>
-      </c>
-      <c r="S11" s="11">
-        <v>15765</v>
-      </c>
-      <c r="T11" s="11">
-        <v>15971</v>
-      </c>
-      <c r="U11" s="11">
-        <v>15630</v>
-      </c>
-      <c r="V11" s="11">
-        <v>15101</v>
-      </c>
-      <c r="W11" s="11">
-        <v>16421</v>
-      </c>
-      <c r="X11" s="11">
-        <v>16455</v>
-      </c>
-      <c r="Y11" s="11">
-        <v>16312</v>
-      </c>
-      <c r="Z11" s="11">
-        <v>16119</v>
-      </c>
-      <c r="AA11" s="11">
-        <v>15666</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>15164</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>13518</v>
-      </c>
-      <c r="AD11" s="11">
-        <v>15652</v>
-      </c>
       <c r="AE11" s="11">
-        <v>15520</v>
+        <v>14333</v>
       </c>
       <c r="AF11" s="11">
-        <v>14333</v>
+        <v>15334</v>
       </c>
       <c r="AG11" s="11">
-        <v>15334</v>
+        <v>14519</v>
       </c>
       <c r="AH11" s="11">
-        <v>14519</v>
+        <v>15701</v>
       </c>
       <c r="AI11" s="11">
-        <v>15701</v>
+        <v>15287</v>
       </c>
       <c r="AJ11" s="11">
-        <v>15287</v>
+        <v>15735</v>
       </c>
       <c r="AK11" s="11">
-        <v>15735</v>
+        <v>15625</v>
       </c>
       <c r="AL11" s="11">
-        <v>15625</v>
+        <v>14959</v>
       </c>
       <c r="AM11" s="11">
-        <v>14959</v>
+        <v>15595</v>
       </c>
       <c r="AN11" s="11">
-        <v>15595</v>
+        <v>15727</v>
       </c>
       <c r="AO11" s="11">
-        <v>15727</v>
+        <v>15886</v>
       </c>
       <c r="AP11" s="11">
+        <v>15837</v>
+      </c>
+      <c r="AQ11" s="11">
+        <v>15821</v>
+      </c>
+      <c r="AR11" s="11">
+        <v>15733</v>
+      </c>
+      <c r="AS11" s="11">
+        <v>15272</v>
+      </c>
+      <c r="AT11" s="11">
         <v>15886</v>
       </c>
-      <c r="AQ11" s="11">
-        <v>15837</v>
-      </c>
-      <c r="AR11" s="11">
-        <v>15821</v>
-      </c>
-      <c r="AS11" s="11">
-        <v>15733</v>
-      </c>
-      <c r="AT11" s="11">
-        <v>15272</v>
-      </c>
       <c r="AU11" s="11">
-        <v>15886</v>
+        <v>15763</v>
       </c>
       <c r="AV11" s="11">
-        <v>15763</v>
+        <v>15897</v>
       </c>
       <c r="AW11" s="11">
-        <v>15897</v>
+        <v>15904</v>
       </c>
       <c r="AX11" s="11">
-        <v>15904</v>
+        <v>15743</v>
       </c>
       <c r="AY11" s="11">
-        <v>15743</v>
+        <v>15772</v>
       </c>
       <c r="AZ11" s="11">
-        <v>15772</v>
+        <v>15566</v>
       </c>
       <c r="BA11" s="11">
-        <v>15566</v>
+        <v>15609</v>
       </c>
       <c r="BB11" s="11">
-        <v>15609</v>
+        <v>15348</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
@@ -1530,157 +1565,157 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>5131</v>
+        <v>7273</v>
       </c>
       <c r="F12" s="13">
-        <v>7273</v>
+        <v>7017</v>
       </c>
       <c r="G12" s="13">
-        <v>7017</v>
+        <v>6917</v>
       </c>
       <c r="H12" s="13">
-        <v>6917</v>
+        <v>7486</v>
       </c>
       <c r="I12" s="13">
-        <v>7486</v>
+        <v>7100</v>
       </c>
       <c r="J12" s="13">
-        <v>7100</v>
+        <v>4368</v>
       </c>
       <c r="K12" s="13">
-        <v>4368</v>
+        <v>7261</v>
       </c>
       <c r="L12" s="13">
-        <v>7261</v>
+        <v>7646</v>
       </c>
       <c r="M12" s="13">
-        <v>7646</v>
+        <v>8350</v>
       </c>
       <c r="N12" s="13">
-        <v>8350</v>
+        <v>7886</v>
       </c>
       <c r="O12" s="13">
-        <v>7886</v>
+        <v>7648</v>
       </c>
       <c r="P12" s="13">
-        <v>7648</v>
+        <v>6506</v>
       </c>
       <c r="Q12" s="13">
-        <v>6506</v>
+        <v>6820</v>
       </c>
       <c r="R12" s="13">
-        <v>6820</v>
+        <v>7149</v>
       </c>
       <c r="S12" s="13">
-        <v>7149</v>
+        <v>7708</v>
       </c>
       <c r="T12" s="13">
-        <v>7708</v>
+        <v>7201</v>
       </c>
       <c r="U12" s="13">
-        <v>7201</v>
+        <v>6700</v>
       </c>
       <c r="V12" s="13">
-        <v>6700</v>
+        <v>6127</v>
       </c>
       <c r="W12" s="13">
-        <v>6127</v>
+        <v>7128</v>
       </c>
       <c r="X12" s="13">
-        <v>7128</v>
+        <v>5447</v>
       </c>
       <c r="Y12" s="13">
-        <v>5447</v>
+        <v>6188</v>
       </c>
       <c r="Z12" s="13">
-        <v>6188</v>
+        <v>6464</v>
       </c>
       <c r="AA12" s="13">
-        <v>6464</v>
+        <v>7278</v>
       </c>
       <c r="AB12" s="13">
-        <v>7278</v>
+        <v>6962</v>
       </c>
       <c r="AC12" s="13">
-        <v>6962</v>
+        <v>7140</v>
       </c>
       <c r="AD12" s="13">
-        <v>7140</v>
+        <v>5766</v>
       </c>
       <c r="AE12" s="13">
-        <v>5766</v>
+        <v>6813</v>
       </c>
       <c r="AF12" s="13">
-        <v>6813</v>
+        <v>7250</v>
       </c>
       <c r="AG12" s="13">
-        <v>7250</v>
+        <v>7231</v>
       </c>
       <c r="AH12" s="13">
-        <v>7231</v>
+        <v>7300</v>
       </c>
       <c r="AI12" s="13">
-        <v>7300</v>
+        <v>7379</v>
       </c>
       <c r="AJ12" s="13">
-        <v>7379</v>
+        <v>6705</v>
       </c>
       <c r="AK12" s="13">
-        <v>6705</v>
+        <v>7203</v>
       </c>
       <c r="AL12" s="13">
-        <v>7203</v>
+        <v>7805</v>
       </c>
       <c r="AM12" s="13">
-        <v>7805</v>
+        <v>9122</v>
       </c>
       <c r="AN12" s="13">
-        <v>9122</v>
+        <v>9021</v>
       </c>
       <c r="AO12" s="13">
-        <v>9021</v>
+        <v>7377</v>
       </c>
       <c r="AP12" s="13">
-        <v>7377</v>
+        <v>10276</v>
       </c>
       <c r="AQ12" s="13">
-        <v>10276</v>
+        <v>8221</v>
       </c>
       <c r="AR12" s="13">
-        <v>8221</v>
+        <v>8557</v>
       </c>
       <c r="AS12" s="13">
-        <v>8557</v>
+        <v>9734</v>
       </c>
       <c r="AT12" s="13">
-        <v>9734</v>
+        <v>5339</v>
       </c>
       <c r="AU12" s="13">
-        <v>5339</v>
+        <v>9640</v>
       </c>
       <c r="AV12" s="13">
-        <v>9640</v>
+        <v>10301</v>
       </c>
       <c r="AW12" s="13">
-        <v>10301</v>
+        <v>11100</v>
       </c>
       <c r="AX12" s="13">
-        <v>11100</v>
+        <v>11725</v>
       </c>
       <c r="AY12" s="13">
-        <v>11725</v>
+        <v>11299</v>
       </c>
       <c r="AZ12" s="13">
-        <v>11299</v>
+        <v>10400</v>
       </c>
       <c r="BA12" s="13">
-        <v>10400</v>
+        <v>9949</v>
       </c>
       <c r="BB12" s="13">
-        <v>9949</v>
+        <v>10126</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>58</v>
       </c>
@@ -1811,8 +1846,8 @@
       <c r="AS13" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AT13" s="11" t="s">
-        <v>59</v>
+      <c r="AT13" s="11">
+        <v>0</v>
       </c>
       <c r="AU13" s="11">
         <v>0</v>
@@ -1839,7 +1874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -1970,8 +2005,8 @@
       <c r="AS14" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AT14" s="13" t="s">
-        <v>59</v>
+      <c r="AT14" s="13">
+        <v>0</v>
       </c>
       <c r="AU14" s="13">
         <v>0</v>
@@ -1998,7 +2033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
         <v>61</v>
       </c>
@@ -2055,7 +2090,7 @@
       <c r="BA15" s="15"/>
       <c r="BB15" s="15"/>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="16" t="s">
         <v>62</v>
       </c>
@@ -2121,8 +2156,8 @@
       <c r="X16" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="Y16" s="17" t="s">
-        <v>59</v>
+      <c r="Y16" s="17">
+        <v>0</v>
       </c>
       <c r="Z16" s="17">
         <v>0</v>
@@ -2212,164 +2247,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19">
-        <v>20534</v>
+        <v>23077</v>
       </c>
       <c r="F17" s="19">
-        <v>23077</v>
+        <v>22818</v>
       </c>
       <c r="G17" s="19">
-        <v>22818</v>
+        <v>22647</v>
       </c>
       <c r="H17" s="19">
-        <v>22647</v>
+        <v>23246</v>
       </c>
       <c r="I17" s="19">
-        <v>23246</v>
+        <v>22301</v>
       </c>
       <c r="J17" s="19">
-        <v>22301</v>
+        <v>20323</v>
       </c>
       <c r="K17" s="19">
-        <v>20323</v>
+        <v>23386</v>
       </c>
       <c r="L17" s="19">
-        <v>23386</v>
+        <v>23256</v>
       </c>
       <c r="M17" s="19">
-        <v>23256</v>
+        <v>23251</v>
       </c>
       <c r="N17" s="19">
-        <v>23251</v>
+        <v>23406</v>
       </c>
       <c r="O17" s="19">
-        <v>23406</v>
+        <v>23283</v>
       </c>
       <c r="P17" s="19">
-        <v>23283</v>
+        <v>21967</v>
       </c>
       <c r="Q17" s="19">
-        <v>21967</v>
+        <v>22481</v>
       </c>
       <c r="R17" s="19">
-        <v>22481</v>
+        <v>22914</v>
       </c>
       <c r="S17" s="19">
-        <v>22914</v>
+        <v>23679</v>
       </c>
       <c r="T17" s="19">
-        <v>23679</v>
+        <v>22831</v>
       </c>
       <c r="U17" s="19">
-        <v>22831</v>
+        <v>21801</v>
       </c>
       <c r="V17" s="19">
-        <v>21801</v>
+        <v>22548</v>
       </c>
       <c r="W17" s="19">
-        <v>22548</v>
+        <v>23583</v>
       </c>
       <c r="X17" s="19">
-        <v>23583</v>
+        <v>21759</v>
       </c>
       <c r="Y17" s="19">
-        <v>21759</v>
+        <v>22307</v>
       </c>
       <c r="Z17" s="19">
-        <v>22307</v>
+        <v>22130</v>
       </c>
       <c r="AA17" s="19">
-        <v>22130</v>
+        <v>22442</v>
       </c>
       <c r="AB17" s="19">
-        <v>22442</v>
+        <v>20480</v>
       </c>
       <c r="AC17" s="19">
-        <v>20480</v>
+        <v>22792</v>
       </c>
       <c r="AD17" s="19">
-        <v>22792</v>
+        <v>21286</v>
       </c>
       <c r="AE17" s="19">
-        <v>21286</v>
+        <v>21146</v>
       </c>
       <c r="AF17" s="19">
-        <v>21146</v>
+        <v>22584</v>
       </c>
       <c r="AG17" s="19">
-        <v>22584</v>
+        <v>21750</v>
       </c>
       <c r="AH17" s="19">
-        <v>21750</v>
+        <v>23001</v>
       </c>
       <c r="AI17" s="19">
-        <v>23001</v>
+        <v>22666</v>
       </c>
       <c r="AJ17" s="19">
-        <v>22666</v>
+        <v>22440</v>
       </c>
       <c r="AK17" s="19">
-        <v>22440</v>
+        <v>22828</v>
       </c>
       <c r="AL17" s="19">
-        <v>22828</v>
+        <v>22764</v>
       </c>
       <c r="AM17" s="19">
-        <v>22764</v>
+        <v>24717</v>
       </c>
       <c r="AN17" s="19">
-        <v>24717</v>
+        <v>24748</v>
       </c>
       <c r="AO17" s="19">
-        <v>24748</v>
+        <v>23263</v>
       </c>
       <c r="AP17" s="19">
-        <v>23263</v>
+        <v>26113</v>
       </c>
       <c r="AQ17" s="19">
-        <v>26113</v>
+        <v>24042</v>
       </c>
       <c r="AR17" s="19">
-        <v>24042</v>
+        <v>24290</v>
       </c>
       <c r="AS17" s="19">
-        <v>24290</v>
+        <v>25006</v>
       </c>
       <c r="AT17" s="19">
-        <v>25006</v>
+        <v>21225</v>
       </c>
       <c r="AU17" s="19">
-        <v>21225</v>
+        <v>25403</v>
       </c>
       <c r="AV17" s="19">
-        <v>25403</v>
+        <v>26198</v>
       </c>
       <c r="AW17" s="19">
-        <v>26198</v>
+        <v>27004</v>
       </c>
       <c r="AX17" s="19">
-        <v>27004</v>
+        <v>27468</v>
       </c>
       <c r="AY17" s="19">
-        <v>27468</v>
+        <v>27071</v>
       </c>
       <c r="AZ17" s="19">
-        <v>27071</v>
+        <v>25966</v>
       </c>
       <c r="BA17" s="19">
-        <v>25966</v>
+        <v>25558</v>
       </c>
       <c r="BB17" s="19">
-        <v>25558</v>
+        <v>25474</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2424,7 +2459,7 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2479,7 +2514,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2534,7 +2569,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>64</v>
       </c>
@@ -2691,7 +2726,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2746,7 +2781,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>64</v>
       </c>
@@ -2803,7 +2838,7 @@
       <c r="BA23" s="9"/>
       <c r="BB23" s="9"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>55</v>
       </c>
@@ -2812,157 +2847,157 @@
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11">
-        <v>16174</v>
+        <v>15937</v>
       </c>
       <c r="F24" s="11">
-        <v>15937</v>
+        <v>14852</v>
       </c>
       <c r="G24" s="11">
-        <v>14852</v>
+        <v>15755</v>
       </c>
       <c r="H24" s="11">
-        <v>15755</v>
+        <v>15809</v>
       </c>
       <c r="I24" s="11">
-        <v>15809</v>
+        <v>14794</v>
       </c>
       <c r="J24" s="11">
-        <v>14794</v>
+        <v>12023</v>
       </c>
       <c r="K24" s="11">
-        <v>12023</v>
+        <v>19627</v>
       </c>
       <c r="L24" s="11">
-        <v>19627</v>
+        <v>14425</v>
       </c>
       <c r="M24" s="11">
-        <v>14425</v>
+        <v>16070</v>
       </c>
       <c r="N24" s="11">
-        <v>16070</v>
+        <v>12739</v>
       </c>
       <c r="O24" s="11">
-        <v>12739</v>
+        <v>15869</v>
       </c>
       <c r="P24" s="11">
-        <v>15869</v>
+        <v>15153</v>
       </c>
       <c r="Q24" s="11">
-        <v>15153</v>
+        <v>14462</v>
       </c>
       <c r="R24" s="11">
-        <v>14462</v>
+        <v>14444</v>
       </c>
       <c r="S24" s="11">
-        <v>14444</v>
+        <v>17554</v>
       </c>
       <c r="T24" s="11">
-        <v>17554</v>
+        <v>19445</v>
       </c>
       <c r="U24" s="11">
-        <v>19445</v>
+        <v>15615</v>
       </c>
       <c r="V24" s="11">
-        <v>15615</v>
+        <v>13581</v>
       </c>
       <c r="W24" s="11">
-        <v>13581</v>
+        <v>19202</v>
       </c>
       <c r="X24" s="11">
-        <v>19202</v>
+        <v>16600</v>
       </c>
       <c r="Y24" s="11">
-        <v>16600</v>
+        <v>16926</v>
       </c>
       <c r="Z24" s="11">
-        <v>16926</v>
+        <v>15104</v>
       </c>
       <c r="AA24" s="11">
-        <v>15104</v>
+        <v>15516</v>
       </c>
       <c r="AB24" s="11">
-        <v>15516</v>
+        <v>13576</v>
       </c>
       <c r="AC24" s="11">
-        <v>13576</v>
+        <v>15213</v>
       </c>
       <c r="AD24" s="11">
-        <v>15213</v>
+        <v>15474</v>
       </c>
       <c r="AE24" s="11">
-        <v>15474</v>
+        <v>14644</v>
       </c>
       <c r="AF24" s="11">
-        <v>14644</v>
+        <v>15011</v>
       </c>
       <c r="AG24" s="11">
-        <v>15011</v>
+        <v>13407</v>
       </c>
       <c r="AH24" s="11">
-        <v>13407</v>
+        <v>12764</v>
       </c>
       <c r="AI24" s="11">
-        <v>12764</v>
+        <v>17686</v>
       </c>
       <c r="AJ24" s="11">
-        <v>17686</v>
+        <v>16545</v>
       </c>
       <c r="AK24" s="11">
-        <v>16545</v>
+        <v>16091</v>
       </c>
       <c r="AL24" s="11">
-        <v>16091</v>
+        <v>11985</v>
       </c>
       <c r="AM24" s="11">
-        <v>11985</v>
+        <v>17158</v>
       </c>
       <c r="AN24" s="11">
-        <v>17158</v>
+        <v>14588</v>
       </c>
       <c r="AO24" s="11">
-        <v>14588</v>
+        <v>16241</v>
       </c>
       <c r="AP24" s="11">
-        <v>16241</v>
+        <v>14765</v>
       </c>
       <c r="AQ24" s="11">
-        <v>14765</v>
+        <v>12219</v>
       </c>
       <c r="AR24" s="11">
-        <v>12219</v>
+        <v>11668</v>
       </c>
       <c r="AS24" s="11">
-        <v>11668</v>
+        <v>21269</v>
       </c>
       <c r="AT24" s="11">
-        <v>21269</v>
+        <v>3991</v>
       </c>
       <c r="AU24" s="11">
-        <v>3991</v>
+        <v>15860</v>
       </c>
       <c r="AV24" s="11">
-        <v>15860</v>
+        <v>21987</v>
       </c>
       <c r="AW24" s="11">
-        <v>21987</v>
+        <v>20340</v>
       </c>
       <c r="AX24" s="11">
-        <v>20340</v>
+        <v>16581</v>
       </c>
       <c r="AY24" s="11">
-        <v>16581</v>
+        <v>13718</v>
       </c>
       <c r="AZ24" s="11">
-        <v>13718</v>
+        <v>11322</v>
       </c>
       <c r="BA24" s="11">
-        <v>11322</v>
+        <v>15876</v>
       </c>
       <c r="BB24" s="11">
-        <v>15876</v>
+        <v>19100</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>57</v>
       </c>
@@ -2971,157 +3006,157 @@
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13">
-        <v>6790</v>
+        <v>7742</v>
       </c>
       <c r="F25" s="13">
-        <v>7742</v>
+        <v>6200</v>
       </c>
       <c r="G25" s="13">
-        <v>6200</v>
+        <v>5424</v>
       </c>
       <c r="H25" s="13">
-        <v>5424</v>
+        <v>8010</v>
       </c>
       <c r="I25" s="13">
-        <v>8010</v>
+        <v>6798</v>
       </c>
       <c r="J25" s="13">
-        <v>6798</v>
+        <v>4823</v>
       </c>
       <c r="K25" s="13">
-        <v>4823</v>
+        <v>8593</v>
       </c>
       <c r="L25" s="13">
-        <v>8593</v>
+        <v>6875</v>
       </c>
       <c r="M25" s="13">
-        <v>6875</v>
+        <v>8979</v>
       </c>
       <c r="N25" s="13">
-        <v>8979</v>
+        <v>6486</v>
       </c>
       <c r="O25" s="13">
-        <v>6486</v>
+        <v>6891</v>
       </c>
       <c r="P25" s="13">
-        <v>6891</v>
+        <v>6952</v>
       </c>
       <c r="Q25" s="13">
-        <v>6952</v>
+        <v>7396</v>
       </c>
       <c r="R25" s="13">
-        <v>7396</v>
+        <v>7101</v>
       </c>
       <c r="S25" s="13">
-        <v>7101</v>
+        <v>8333</v>
       </c>
       <c r="T25" s="13">
-        <v>8333</v>
+        <v>6961</v>
       </c>
       <c r="U25" s="13">
-        <v>6961</v>
+        <v>5906</v>
       </c>
       <c r="V25" s="13">
-        <v>5906</v>
+        <v>7612</v>
       </c>
       <c r="W25" s="13">
-        <v>7612</v>
+        <v>6084</v>
       </c>
       <c r="X25" s="13">
-        <v>6084</v>
+        <v>6184</v>
       </c>
       <c r="Y25" s="13">
-        <v>6184</v>
+        <v>6500</v>
       </c>
       <c r="Z25" s="13">
-        <v>6500</v>
+        <v>5648</v>
       </c>
       <c r="AA25" s="13">
-        <v>5648</v>
+        <v>7056</v>
       </c>
       <c r="AB25" s="13">
-        <v>7056</v>
+        <v>7156</v>
       </c>
       <c r="AC25" s="13">
-        <v>7156</v>
+        <v>6511</v>
       </c>
       <c r="AD25" s="13">
-        <v>6511</v>
+        <v>5858</v>
       </c>
       <c r="AE25" s="13">
-        <v>5858</v>
+        <v>7493</v>
       </c>
       <c r="AF25" s="13">
-        <v>7493</v>
+        <v>7185</v>
       </c>
       <c r="AG25" s="13">
-        <v>7185</v>
+        <v>6879</v>
       </c>
       <c r="AH25" s="13">
-        <v>6879</v>
+        <v>7483</v>
       </c>
       <c r="AI25" s="13">
-        <v>7483</v>
+        <v>6241</v>
       </c>
       <c r="AJ25" s="13">
-        <v>6241</v>
+        <v>7709</v>
       </c>
       <c r="AK25" s="13">
-        <v>7709</v>
+        <v>6859</v>
       </c>
       <c r="AL25" s="13">
-        <v>6859</v>
+        <v>7566</v>
       </c>
       <c r="AM25" s="13">
-        <v>7566</v>
+        <v>8525</v>
       </c>
       <c r="AN25" s="13">
-        <v>8525</v>
+        <v>8334</v>
       </c>
       <c r="AO25" s="13">
-        <v>8334</v>
+        <v>8650</v>
       </c>
       <c r="AP25" s="13">
-        <v>8650</v>
+        <v>9758</v>
       </c>
       <c r="AQ25" s="13">
-        <v>9758</v>
+        <v>7783</v>
       </c>
       <c r="AR25" s="13">
-        <v>7783</v>
+        <v>8133</v>
       </c>
       <c r="AS25" s="13">
-        <v>8133</v>
+        <v>8940</v>
       </c>
       <c r="AT25" s="13">
-        <v>8940</v>
+        <v>6827</v>
       </c>
       <c r="AU25" s="13">
-        <v>6827</v>
+        <v>9733</v>
       </c>
       <c r="AV25" s="13">
-        <v>9733</v>
+        <v>10648</v>
       </c>
       <c r="AW25" s="13">
-        <v>10648</v>
+        <v>10289</v>
       </c>
       <c r="AX25" s="13">
-        <v>10289</v>
+        <v>12143</v>
       </c>
       <c r="AY25" s="13">
-        <v>12143</v>
+        <v>10253</v>
       </c>
       <c r="AZ25" s="13">
-        <v>10253</v>
+        <v>10083</v>
       </c>
       <c r="BA25" s="13">
-        <v>10083</v>
+        <v>10265</v>
       </c>
       <c r="BB25" s="13">
-        <v>10265</v>
+        <v>10392</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>58</v>
       </c>
@@ -3252,8 +3287,8 @@
       <c r="AS26" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AT26" s="11" t="s">
-        <v>59</v>
+      <c r="AT26" s="11">
+        <v>0</v>
       </c>
       <c r="AU26" s="11">
         <v>0</v>
@@ -3280,7 +3315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>60</v>
       </c>
@@ -3411,8 +3446,8 @@
       <c r="AS27" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AT27" s="13" t="s">
-        <v>59</v>
+      <c r="AT27" s="13">
+        <v>0</v>
       </c>
       <c r="AU27" s="13">
         <v>0</v>
@@ -3439,7 +3474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
         <v>61</v>
       </c>
@@ -3496,7 +3531,7 @@
       <c r="BA28" s="15"/>
       <c r="BB28" s="15"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
         <v>62</v>
       </c>
@@ -3562,8 +3597,8 @@
       <c r="X29" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="Y29" s="17" t="s">
-        <v>59</v>
+      <c r="Y29" s="17">
+        <v>0</v>
       </c>
       <c r="Z29" s="17">
         <v>0</v>
@@ -3653,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>65</v>
       </c>
@@ -3710,7 +3745,7 @@
       <c r="BA30" s="9"/>
       <c r="BB30" s="9"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>55</v>
       </c>
@@ -3778,8 +3813,8 @@
       <c r="X31" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="Y31" s="11" t="s">
-        <v>59</v>
+      <c r="Y31" s="11">
+        <v>0</v>
       </c>
       <c r="Z31" s="11">
         <v>0</v>
@@ -3808,8 +3843,8 @@
       <c r="AH31" s="11">
         <v>0</v>
       </c>
-      <c r="AI31" s="11">
-        <v>0</v>
+      <c r="AI31" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="AJ31" s="11" t="s">
         <v>59</v>
@@ -3869,7 +3904,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>57</v>
       </c>
@@ -3937,8 +3972,8 @@
       <c r="X32" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="Y32" s="13" t="s">
-        <v>59</v>
+      <c r="Y32" s="13">
+        <v>0</v>
       </c>
       <c r="Z32" s="13">
         <v>0</v>
@@ -3967,8 +4002,8 @@
       <c r="AH32" s="13">
         <v>0</v>
       </c>
-      <c r="AI32" s="13">
-        <v>0</v>
+      <c r="AI32" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="AJ32" s="13" t="s">
         <v>59</v>
@@ -4028,7 +4063,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
         <v>66</v>
       </c>
@@ -4094,8 +4129,8 @@
       <c r="X33" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="Y33" s="17" t="s">
-        <v>59</v>
+      <c r="Y33" s="17">
+        <v>0</v>
       </c>
       <c r="Z33" s="17">
         <v>0</v>
@@ -4185,164 +4220,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B34" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19">
-        <v>22964</v>
+        <v>23679</v>
       </c>
       <c r="F34" s="19">
-        <v>23679</v>
+        <v>21052</v>
       </c>
       <c r="G34" s="19">
-        <v>21052</v>
+        <v>21179</v>
       </c>
       <c r="H34" s="19">
-        <v>21179</v>
+        <v>23819</v>
       </c>
       <c r="I34" s="19">
-        <v>23819</v>
+        <v>21592</v>
       </c>
       <c r="J34" s="19">
-        <v>21592</v>
+        <v>16846</v>
       </c>
       <c r="K34" s="19">
-        <v>16846</v>
+        <v>28220</v>
       </c>
       <c r="L34" s="19">
-        <v>28220</v>
+        <v>21300</v>
       </c>
       <c r="M34" s="19">
-        <v>21300</v>
+        <v>25049</v>
       </c>
       <c r="N34" s="19">
-        <v>25049</v>
+        <v>19225</v>
       </c>
       <c r="O34" s="19">
-        <v>19225</v>
+        <v>22760</v>
       </c>
       <c r="P34" s="19">
-        <v>22760</v>
+        <v>22105</v>
       </c>
       <c r="Q34" s="19">
-        <v>22105</v>
+        <v>21858</v>
       </c>
       <c r="R34" s="19">
-        <v>21858</v>
+        <v>21545</v>
       </c>
       <c r="S34" s="19">
-        <v>21545</v>
+        <v>25887</v>
       </c>
       <c r="T34" s="19">
-        <v>25887</v>
+        <v>26406</v>
       </c>
       <c r="U34" s="19">
-        <v>26406</v>
+        <v>21521</v>
       </c>
       <c r="V34" s="19">
-        <v>21521</v>
+        <v>21193</v>
       </c>
       <c r="W34" s="19">
-        <v>21193</v>
+        <v>25286</v>
       </c>
       <c r="X34" s="19">
-        <v>25286</v>
+        <v>22784</v>
       </c>
       <c r="Y34" s="19">
-        <v>22784</v>
+        <v>23426</v>
       </c>
       <c r="Z34" s="19">
-        <v>23426</v>
+        <v>20752</v>
       </c>
       <c r="AA34" s="19">
-        <v>20752</v>
+        <v>22572</v>
       </c>
       <c r="AB34" s="19">
-        <v>22572</v>
+        <v>20732</v>
       </c>
       <c r="AC34" s="19">
-        <v>20732</v>
+        <v>21724</v>
       </c>
       <c r="AD34" s="19">
-        <v>21724</v>
+        <v>21332</v>
       </c>
       <c r="AE34" s="19">
-        <v>21332</v>
+        <v>22137</v>
       </c>
       <c r="AF34" s="19">
-        <v>22137</v>
+        <v>22196</v>
       </c>
       <c r="AG34" s="19">
-        <v>22196</v>
+        <v>20286</v>
       </c>
       <c r="AH34" s="19">
-        <v>20286</v>
+        <v>20247</v>
       </c>
       <c r="AI34" s="19">
-        <v>20247</v>
+        <v>23927</v>
       </c>
       <c r="AJ34" s="19">
-        <v>23927</v>
+        <v>24254</v>
       </c>
       <c r="AK34" s="19">
-        <v>24254</v>
+        <v>22950</v>
       </c>
       <c r="AL34" s="19">
-        <v>22950</v>
+        <v>19551</v>
       </c>
       <c r="AM34" s="19">
-        <v>19551</v>
+        <v>25683</v>
       </c>
       <c r="AN34" s="19">
-        <v>25683</v>
+        <v>22922</v>
       </c>
       <c r="AO34" s="19">
-        <v>22922</v>
+        <v>24891</v>
       </c>
       <c r="AP34" s="19">
-        <v>24891</v>
+        <v>24523</v>
       </c>
       <c r="AQ34" s="19">
-        <v>24523</v>
+        <v>20002</v>
       </c>
       <c r="AR34" s="19">
-        <v>20002</v>
+        <v>19801</v>
       </c>
       <c r="AS34" s="19">
-        <v>19801</v>
+        <v>30209</v>
       </c>
       <c r="AT34" s="19">
-        <v>30209</v>
+        <v>10818</v>
       </c>
       <c r="AU34" s="19">
-        <v>10818</v>
+        <v>25593</v>
       </c>
       <c r="AV34" s="19">
-        <v>25593</v>
+        <v>32635</v>
       </c>
       <c r="AW34" s="19">
-        <v>32635</v>
+        <v>30629</v>
       </c>
       <c r="AX34" s="19">
-        <v>30629</v>
+        <v>28724</v>
       </c>
       <c r="AY34" s="19">
-        <v>28724</v>
+        <v>23971</v>
       </c>
       <c r="AZ34" s="19">
-        <v>23971</v>
+        <v>21405</v>
       </c>
       <c r="BA34" s="19">
-        <v>21405</v>
+        <v>26141</v>
       </c>
       <c r="BB34" s="19">
-        <v>26141</v>
+        <v>29492</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -4397,7 +4432,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -4452,7 +4487,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -4507,7 +4542,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>67</v>
       </c>
@@ -4664,7 +4699,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -4719,7 +4754,7 @@
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>67</v>
       </c>
@@ -4776,7 +4811,7 @@
       <c r="BA40" s="9"/>
       <c r="BB40" s="9"/>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>55</v>
       </c>
@@ -4785,157 +4820,157 @@
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
-        <v>149809</v>
+        <v>170531</v>
       </c>
       <c r="F41" s="11">
-        <v>170531</v>
+        <v>177396</v>
       </c>
       <c r="G41" s="11">
-        <v>177396</v>
+        <v>189211</v>
       </c>
       <c r="H41" s="11">
-        <v>189211</v>
+        <v>192324</v>
       </c>
       <c r="I41" s="11">
-        <v>192324</v>
+        <v>177662</v>
       </c>
       <c r="J41" s="11">
-        <v>177662</v>
+        <v>168928</v>
       </c>
       <c r="K41" s="11">
-        <v>168928</v>
+        <v>258204</v>
       </c>
       <c r="L41" s="11">
-        <v>258204</v>
+        <v>181648</v>
       </c>
       <c r="M41" s="11">
-        <v>181648</v>
+        <v>233528</v>
       </c>
       <c r="N41" s="11">
-        <v>233528</v>
+        <v>159840</v>
       </c>
       <c r="O41" s="11">
-        <v>159840</v>
+        <v>218600</v>
       </c>
       <c r="P41" s="11">
-        <v>218600</v>
+        <v>217045</v>
       </c>
       <c r="Q41" s="11">
-        <v>217045</v>
+        <v>194925</v>
       </c>
       <c r="R41" s="11">
-        <v>194925</v>
+        <v>200040</v>
       </c>
       <c r="S41" s="11">
-        <v>200040</v>
+        <v>246996</v>
       </c>
       <c r="T41" s="11">
-        <v>246996</v>
+        <v>277238</v>
       </c>
       <c r="U41" s="11">
-        <v>277238</v>
+        <v>219149</v>
       </c>
       <c r="V41" s="11">
-        <v>219149</v>
+        <v>167884</v>
       </c>
       <c r="W41" s="11">
-        <v>167884</v>
+        <v>254460</v>
       </c>
       <c r="X41" s="11">
-        <v>254460</v>
+        <v>215765</v>
       </c>
       <c r="Y41" s="11">
-        <v>215765</v>
+        <v>246738</v>
       </c>
       <c r="Z41" s="11">
-        <v>246738</v>
+        <v>227469</v>
       </c>
       <c r="AA41" s="11">
-        <v>227469</v>
+        <v>234095</v>
       </c>
       <c r="AB41" s="11">
-        <v>234095</v>
+        <v>230177</v>
       </c>
       <c r="AC41" s="11">
-        <v>230177</v>
+        <v>295754</v>
       </c>
       <c r="AD41" s="11">
-        <v>295754</v>
+        <v>329620</v>
       </c>
       <c r="AE41" s="11">
-        <v>329620</v>
+        <v>376397</v>
       </c>
       <c r="AF41" s="11">
-        <v>376397</v>
+        <v>426246</v>
       </c>
       <c r="AG41" s="11">
-        <v>426246</v>
+        <v>385238</v>
       </c>
       <c r="AH41" s="11">
-        <v>385238</v>
+        <v>327538</v>
       </c>
       <c r="AI41" s="11">
-        <v>327538</v>
+        <v>453017</v>
       </c>
       <c r="AJ41" s="11">
-        <v>453017</v>
+        <v>422359</v>
       </c>
       <c r="AK41" s="11">
-        <v>422359</v>
+        <v>417870</v>
       </c>
       <c r="AL41" s="11">
-        <v>417870</v>
+        <v>307576</v>
       </c>
       <c r="AM41" s="11">
-        <v>307576</v>
+        <v>445603</v>
       </c>
       <c r="AN41" s="11">
-        <v>445603</v>
+        <v>398058</v>
       </c>
       <c r="AO41" s="11">
-        <v>398058</v>
+        <v>460037</v>
       </c>
       <c r="AP41" s="11">
-        <v>460037</v>
+        <v>420127</v>
       </c>
       <c r="AQ41" s="11">
-        <v>420127</v>
+        <v>348851</v>
       </c>
       <c r="AR41" s="11">
-        <v>348851</v>
+        <v>343127</v>
       </c>
       <c r="AS41" s="11">
-        <v>343127</v>
+        <v>605488</v>
       </c>
       <c r="AT41" s="11">
-        <v>605488</v>
+        <v>113319</v>
       </c>
       <c r="AU41" s="11">
-        <v>113319</v>
+        <v>449871</v>
       </c>
       <c r="AV41" s="11">
-        <v>449871</v>
+        <v>646834</v>
       </c>
       <c r="AW41" s="11">
-        <v>646834</v>
+        <v>633593</v>
       </c>
       <c r="AX41" s="11">
-        <v>633593</v>
+        <v>537098</v>
       </c>
       <c r="AY41" s="11">
-        <v>537098</v>
+        <v>484571</v>
       </c>
       <c r="AZ41" s="11">
-        <v>484571</v>
+        <v>400036</v>
       </c>
       <c r="BA41" s="11">
-        <v>400036</v>
+        <v>571922</v>
       </c>
       <c r="BB41" s="11">
-        <v>571922</v>
+        <v>680319</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>57</v>
       </c>
@@ -4944,157 +4979,157 @@
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13">
-        <v>20136</v>
+        <v>21897</v>
       </c>
       <c r="F42" s="13">
-        <v>21897</v>
+        <v>21626</v>
       </c>
       <c r="G42" s="13">
-        <v>21626</v>
+        <v>20102</v>
       </c>
       <c r="H42" s="13">
-        <v>20102</v>
+        <v>26766</v>
       </c>
       <c r="I42" s="13">
-        <v>26766</v>
+        <v>25798</v>
       </c>
       <c r="J42" s="13">
-        <v>25798</v>
+        <v>18825</v>
       </c>
       <c r="K42" s="13">
-        <v>18825</v>
+        <v>26976</v>
       </c>
       <c r="L42" s="13">
-        <v>26976</v>
+        <v>22532</v>
       </c>
       <c r="M42" s="13">
-        <v>22532</v>
+        <v>30526</v>
       </c>
       <c r="N42" s="13">
-        <v>30526</v>
+        <v>24180</v>
       </c>
       <c r="O42" s="13">
-        <v>24180</v>
+        <v>26524</v>
       </c>
       <c r="P42" s="13">
-        <v>26524</v>
+        <v>29756</v>
       </c>
       <c r="Q42" s="13">
-        <v>29756</v>
+        <v>28402</v>
       </c>
       <c r="R42" s="13">
-        <v>28402</v>
+        <v>29357</v>
       </c>
       <c r="S42" s="13">
-        <v>29357</v>
+        <v>31623</v>
       </c>
       <c r="T42" s="13">
-        <v>31623</v>
+        <v>30163</v>
       </c>
       <c r="U42" s="13">
-        <v>30163</v>
+        <v>28721</v>
       </c>
       <c r="V42" s="13">
-        <v>28721</v>
+        <v>33879</v>
       </c>
       <c r="W42" s="13">
-        <v>33879</v>
+        <v>34659</v>
       </c>
       <c r="X42" s="13">
-        <v>34659</v>
+        <v>35587</v>
       </c>
       <c r="Y42" s="13">
-        <v>35587</v>
+        <v>40550</v>
       </c>
       <c r="Z42" s="13">
-        <v>40550</v>
+        <v>39659</v>
       </c>
       <c r="AA42" s="13">
-        <v>39659</v>
+        <v>46758</v>
       </c>
       <c r="AB42" s="13">
-        <v>46758</v>
+        <v>49191</v>
       </c>
       <c r="AC42" s="13">
-        <v>49191</v>
+        <v>55612</v>
       </c>
       <c r="AD42" s="13">
-        <v>55612</v>
+        <v>57433</v>
       </c>
       <c r="AE42" s="13">
-        <v>57433</v>
+        <v>62741</v>
       </c>
       <c r="AF42" s="13">
-        <v>62741</v>
+        <v>60430</v>
       </c>
       <c r="AG42" s="13">
-        <v>60430</v>
+        <v>55333</v>
       </c>
       <c r="AH42" s="13">
-        <v>55333</v>
+        <v>62899</v>
       </c>
       <c r="AI42" s="13">
-        <v>62899</v>
+        <v>63832</v>
       </c>
       <c r="AJ42" s="13">
-        <v>63832</v>
+        <v>72460</v>
       </c>
       <c r="AK42" s="13">
-        <v>72460</v>
+        <v>71916</v>
       </c>
       <c r="AL42" s="13">
-        <v>71916</v>
+        <v>78713</v>
       </c>
       <c r="AM42" s="13">
-        <v>78713</v>
+        <v>93212</v>
       </c>
       <c r="AN42" s="13">
-        <v>93212</v>
+        <v>90117</v>
       </c>
       <c r="AO42" s="13">
-        <v>90117</v>
+        <v>94531</v>
       </c>
       <c r="AP42" s="13">
-        <v>94531</v>
+        <v>107643</v>
       </c>
       <c r="AQ42" s="13">
-        <v>107643</v>
+        <v>95968</v>
       </c>
       <c r="AR42" s="13">
-        <v>95968</v>
+        <v>105775</v>
       </c>
       <c r="AS42" s="13">
-        <v>105775</v>
+        <v>117256</v>
       </c>
       <c r="AT42" s="13">
-        <v>117256</v>
+        <v>83980</v>
       </c>
       <c r="AU42" s="13">
-        <v>83980</v>
+        <v>126564</v>
       </c>
       <c r="AV42" s="13">
-        <v>126564</v>
+        <v>135981</v>
       </c>
       <c r="AW42" s="13">
-        <v>135981</v>
+        <v>127017</v>
       </c>
       <c r="AX42" s="13">
-        <v>127017</v>
+        <v>160366</v>
       </c>
       <c r="AY42" s="13">
-        <v>160366</v>
+        <v>138675</v>
       </c>
       <c r="AZ42" s="13">
-        <v>138675</v>
+        <v>135512</v>
       </c>
       <c r="BA42" s="13">
-        <v>135512</v>
+        <v>152465</v>
       </c>
       <c r="BB42" s="13">
-        <v>152465</v>
+        <v>155732</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>58</v>
       </c>
@@ -5225,8 +5260,8 @@
       <c r="AS43" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AT43" s="11" t="s">
-        <v>59</v>
+      <c r="AT43" s="11">
+        <v>0</v>
       </c>
       <c r="AU43" s="11">
         <v>0</v>
@@ -5253,7 +5288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>60</v>
       </c>
@@ -5384,8 +5419,8 @@
       <c r="AS44" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AT44" s="13" t="s">
-        <v>59</v>
+      <c r="AT44" s="13">
+        <v>0</v>
       </c>
       <c r="AU44" s="13">
         <v>0</v>
@@ -5412,7 +5447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>69</v>
       </c>
@@ -5469,7 +5504,7 @@
       <c r="BA45" s="15"/>
       <c r="BB45" s="15"/>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="16" t="s">
         <v>62</v>
       </c>
@@ -5537,8 +5572,8 @@
       <c r="X46" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="Y46" s="17" t="s">
-        <v>59</v>
+      <c r="Y46" s="17">
+        <v>0</v>
       </c>
       <c r="Z46" s="17">
         <v>0</v>
@@ -5628,7 +5663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>70</v>
       </c>
@@ -5685,7 +5720,7 @@
       <c r="BA47" s="9"/>
       <c r="BB47" s="9"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>55</v>
       </c>
@@ -5753,8 +5788,8 @@
       <c r="X48" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="Y48" s="11" t="s">
-        <v>59</v>
+      <c r="Y48" s="11">
+        <v>0</v>
       </c>
       <c r="Z48" s="11">
         <v>0</v>
@@ -5816,8 +5851,8 @@
       <c r="AS48" s="11">
         <v>0</v>
       </c>
-      <c r="AT48" s="11">
-        <v>0</v>
+      <c r="AT48" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="AU48" s="11" t="s">
         <v>59</v>
@@ -5844,7 +5879,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>57</v>
       </c>
@@ -5912,8 +5947,8 @@
       <c r="X49" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="Y49" s="13" t="s">
-        <v>59</v>
+      <c r="Y49" s="13">
+        <v>0</v>
       </c>
       <c r="Z49" s="13">
         <v>0</v>
@@ -5975,8 +6010,8 @@
       <c r="AS49" s="13">
         <v>0</v>
       </c>
-      <c r="AT49" s="13">
-        <v>0</v>
+      <c r="AT49" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="AU49" s="13" t="s">
         <v>59</v>
@@ -6003,7 +6038,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B50" s="16" t="s">
         <v>66</v>
       </c>
@@ -6071,8 +6106,8 @@
       <c r="X50" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="Y50" s="17" t="s">
-        <v>59</v>
+      <c r="Y50" s="17">
+        <v>0</v>
       </c>
       <c r="Z50" s="17">
         <v>0</v>
@@ -6162,7 +6197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>71</v>
       </c>
@@ -6219,7 +6254,7 @@
       <c r="BA51" s="9"/>
       <c r="BB51" s="9"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>72</v>
       </c>
@@ -6287,8 +6322,8 @@
       <c r="X52" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="Y52" s="11" t="s">
-        <v>59</v>
+      <c r="Y52" s="11">
+        <v>0</v>
       </c>
       <c r="Z52" s="11">
         <v>0</v>
@@ -6378,164 +6413,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B53" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C53" s="19"/>
       <c r="D53" s="19"/>
       <c r="E53" s="19">
-        <v>169945</v>
+        <v>192428</v>
       </c>
       <c r="F53" s="19">
-        <v>192428</v>
+        <v>199022</v>
       </c>
       <c r="G53" s="19">
-        <v>199022</v>
+        <v>209313</v>
       </c>
       <c r="H53" s="19">
-        <v>209313</v>
+        <v>219090</v>
       </c>
       <c r="I53" s="19">
-        <v>219090</v>
+        <v>203460</v>
       </c>
       <c r="J53" s="19">
-        <v>203460</v>
+        <v>187753</v>
       </c>
       <c r="K53" s="19">
-        <v>187753</v>
+        <v>285180</v>
       </c>
       <c r="L53" s="19">
-        <v>285180</v>
+        <v>204180</v>
       </c>
       <c r="M53" s="19">
-        <v>204180</v>
+        <v>264054</v>
       </c>
       <c r="N53" s="19">
-        <v>264054</v>
+        <v>184020</v>
       </c>
       <c r="O53" s="19">
-        <v>184020</v>
+        <v>245124</v>
       </c>
       <c r="P53" s="19">
-        <v>245124</v>
+        <v>246801</v>
       </c>
       <c r="Q53" s="19">
-        <v>246801</v>
+        <v>223327</v>
       </c>
       <c r="R53" s="19">
-        <v>223327</v>
+        <v>229397</v>
       </c>
       <c r="S53" s="19">
-        <v>229397</v>
+        <v>278619</v>
       </c>
       <c r="T53" s="19">
-        <v>278619</v>
+        <v>307401</v>
       </c>
       <c r="U53" s="19">
-        <v>307401</v>
+        <v>247870</v>
       </c>
       <c r="V53" s="19">
-        <v>247870</v>
+        <v>201763</v>
       </c>
       <c r="W53" s="19">
-        <v>201763</v>
+        <v>289119</v>
       </c>
       <c r="X53" s="19">
-        <v>289119</v>
+        <v>251352</v>
       </c>
       <c r="Y53" s="19">
-        <v>251352</v>
+        <v>287288</v>
       </c>
       <c r="Z53" s="19">
-        <v>287288</v>
+        <v>267128</v>
       </c>
       <c r="AA53" s="19">
-        <v>267128</v>
+        <v>280853</v>
       </c>
       <c r="AB53" s="19">
-        <v>280853</v>
+        <v>279368</v>
       </c>
       <c r="AC53" s="19">
-        <v>279368</v>
+        <v>351366</v>
       </c>
       <c r="AD53" s="19">
-        <v>351366</v>
+        <v>387053</v>
       </c>
       <c r="AE53" s="19">
-        <v>387053</v>
+        <v>439138</v>
       </c>
       <c r="AF53" s="19">
-        <v>439138</v>
+        <v>486676</v>
       </c>
       <c r="AG53" s="19">
-        <v>486676</v>
+        <v>440571</v>
       </c>
       <c r="AH53" s="19">
-        <v>440571</v>
+        <v>390437</v>
       </c>
       <c r="AI53" s="19">
-        <v>390437</v>
+        <v>516849</v>
       </c>
       <c r="AJ53" s="19">
-        <v>516849</v>
+        <v>494819</v>
       </c>
       <c r="AK53" s="19">
-        <v>494819</v>
+        <v>489786</v>
       </c>
       <c r="AL53" s="19">
-        <v>489786</v>
+        <v>386289</v>
       </c>
       <c r="AM53" s="19">
-        <v>386289</v>
+        <v>538815</v>
       </c>
       <c r="AN53" s="19">
-        <v>538815</v>
+        <v>488175</v>
       </c>
       <c r="AO53" s="19">
-        <v>488175</v>
+        <v>554568</v>
       </c>
       <c r="AP53" s="19">
-        <v>554568</v>
+        <v>527770</v>
       </c>
       <c r="AQ53" s="19">
-        <v>527770</v>
+        <v>444819</v>
       </c>
       <c r="AR53" s="19">
-        <v>444819</v>
+        <v>448902</v>
       </c>
       <c r="AS53" s="19">
-        <v>448902</v>
+        <v>722744</v>
       </c>
       <c r="AT53" s="19">
-        <v>722744</v>
+        <v>197299</v>
       </c>
       <c r="AU53" s="19">
-        <v>197299</v>
+        <v>576435</v>
       </c>
       <c r="AV53" s="19">
-        <v>576435</v>
+        <v>782815</v>
       </c>
       <c r="AW53" s="19">
-        <v>782815</v>
+        <v>760610</v>
       </c>
       <c r="AX53" s="19">
-        <v>760610</v>
+        <v>697464</v>
       </c>
       <c r="AY53" s="19">
-        <v>697464</v>
+        <v>623246</v>
       </c>
       <c r="AZ53" s="19">
-        <v>623246</v>
+        <v>535548</v>
       </c>
       <c r="BA53" s="19">
-        <v>535548</v>
+        <v>724387</v>
       </c>
       <c r="BB53" s="19">
-        <v>724387</v>
+        <v>836051</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -6590,7 +6625,7 @@
       <c r="BA54" s="1"/>
       <c r="BB54" s="1"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -6645,7 +6680,7 @@
       <c r="BA55" s="1"/>
       <c r="BB55" s="1"/>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -6700,7 +6735,7 @@
       <c r="BA56" s="1"/>
       <c r="BB56" s="1"/>
     </row>
-    <row r="57" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
         <v>73</v>
       </c>
@@ -6857,7 +6892,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -6912,7 +6947,7 @@
       <c r="BA58" s="1"/>
       <c r="BB58" s="1"/>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>74</v>
       </c>
@@ -6969,7 +7004,7 @@
       <c r="BA59" s="9"/>
       <c r="BB59" s="9"/>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>55</v>
       </c>
@@ -6978,157 +7013,157 @@
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
-        <v>9262335</v>
+        <v>10700320</v>
       </c>
       <c r="F60" s="11">
-        <v>10700320</v>
+        <v>11944250</v>
       </c>
       <c r="G60" s="11">
-        <v>11944250</v>
+        <v>12009584</v>
       </c>
       <c r="H60" s="11">
-        <v>12009584</v>
+        <v>12165475</v>
       </c>
       <c r="I60" s="11">
-        <v>12165475</v>
+        <v>12009058</v>
       </c>
       <c r="J60" s="11">
-        <v>12009058</v>
+        <v>14050403</v>
       </c>
       <c r="K60" s="11">
-        <v>14050403</v>
+        <v>13155551</v>
       </c>
       <c r="L60" s="11">
-        <v>13155551</v>
+        <v>12592582</v>
       </c>
       <c r="M60" s="11">
-        <v>12592582</v>
+        <v>14531923</v>
       </c>
       <c r="N60" s="11">
-        <v>14531923</v>
+        <v>12547296</v>
       </c>
       <c r="O60" s="11">
-        <v>12547296</v>
+        <v>13775285</v>
       </c>
       <c r="P60" s="11">
-        <v>13775285</v>
+        <v>14323566</v>
       </c>
       <c r="Q60" s="11">
-        <v>14323566</v>
+        <v>13478426</v>
       </c>
       <c r="R60" s="11">
-        <v>13478426</v>
+        <v>13849349</v>
       </c>
       <c r="S60" s="11">
-        <v>13849349</v>
+        <v>14070639</v>
       </c>
       <c r="T60" s="11">
-        <v>14070639</v>
+        <v>14257547</v>
       </c>
       <c r="U60" s="11">
-        <v>14257547</v>
+        <v>14034518</v>
       </c>
       <c r="V60" s="11">
-        <v>14034518</v>
+        <v>12361682</v>
       </c>
       <c r="W60" s="11">
-        <v>12361682</v>
+        <v>13251745</v>
       </c>
       <c r="X60" s="11">
-        <v>13251745</v>
+        <v>12997892</v>
       </c>
       <c r="Y60" s="11">
-        <v>12997892</v>
+        <v>14577455</v>
       </c>
       <c r="Z60" s="11">
-        <v>14577455</v>
+        <v>15060183</v>
       </c>
       <c r="AA60" s="11">
-        <v>15060183</v>
+        <v>15087329</v>
       </c>
       <c r="AB60" s="11">
-        <v>15087329</v>
+        <v>16954699</v>
       </c>
       <c r="AC60" s="11">
-        <v>16954699</v>
+        <v>19440873</v>
       </c>
       <c r="AD60" s="11">
-        <v>19440873</v>
+        <v>21301538</v>
       </c>
       <c r="AE60" s="11">
-        <v>21301538</v>
+        <v>25703155</v>
       </c>
       <c r="AF60" s="11">
-        <v>25703155</v>
+        <v>28395577</v>
       </c>
       <c r="AG60" s="11">
-        <v>28395577</v>
+        <v>28734094</v>
       </c>
       <c r="AH60" s="11">
-        <v>28734094</v>
+        <v>25661078</v>
       </c>
       <c r="AI60" s="11">
-        <v>25661078</v>
+        <v>25614441</v>
       </c>
       <c r="AJ60" s="11">
-        <v>25614441</v>
+        <v>25527894</v>
       </c>
       <c r="AK60" s="11">
-        <v>25527894</v>
+        <v>25969175</v>
       </c>
       <c r="AL60" s="11">
-        <v>25969175</v>
+        <v>25663413</v>
       </c>
       <c r="AM60" s="11">
-        <v>25663413</v>
+        <v>25970568</v>
       </c>
       <c r="AN60" s="11">
-        <v>25970568</v>
+        <v>27286674</v>
       </c>
       <c r="AO60" s="11">
-        <v>27286674</v>
+        <v>28325657</v>
       </c>
       <c r="AP60" s="11">
-        <v>28325657</v>
+        <v>28454250</v>
       </c>
       <c r="AQ60" s="11">
-        <v>28454250</v>
+        <v>28549881</v>
       </c>
       <c r="AR60" s="11">
-        <v>28549881</v>
+        <v>29407525</v>
       </c>
       <c r="AS60" s="11">
-        <v>29407525</v>
+        <v>28468099</v>
       </c>
       <c r="AT60" s="11">
-        <v>28468099</v>
+        <v>28393636</v>
       </c>
       <c r="AU60" s="11">
-        <v>28393636</v>
+        <v>28365132</v>
       </c>
       <c r="AV60" s="11">
-        <v>28365132</v>
+        <v>29418929</v>
       </c>
       <c r="AW60" s="11">
-        <v>29418929</v>
+        <v>31150098</v>
       </c>
       <c r="AX60" s="11">
-        <v>31150098</v>
+        <v>32392377</v>
       </c>
       <c r="AY60" s="11">
-        <v>32392377</v>
+        <v>35323735</v>
       </c>
       <c r="AZ60" s="11">
-        <v>35323735</v>
+        <v>35332627</v>
       </c>
       <c r="BA60" s="11">
-        <v>35332627</v>
+        <v>36024313</v>
       </c>
       <c r="BB60" s="11">
-        <v>36024313</v>
+        <v>35618796</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B61" s="12" t="s">
         <v>57</v>
       </c>
@@ -7137,154 +7172,154 @@
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="13">
-        <v>2965538</v>
+        <v>2828339</v>
       </c>
       <c r="F61" s="13">
-        <v>2828339</v>
+        <v>3488065</v>
       </c>
       <c r="G61" s="13">
-        <v>3488065</v>
+        <v>3706121</v>
       </c>
       <c r="H61" s="13">
-        <v>3706121</v>
+        <v>3341573</v>
       </c>
       <c r="I61" s="13">
-        <v>3341573</v>
+        <v>3794940</v>
       </c>
       <c r="J61" s="13">
-        <v>3794940</v>
+        <v>3903172</v>
       </c>
       <c r="K61" s="13">
-        <v>3903172</v>
+        <v>3139299</v>
       </c>
       <c r="L61" s="13">
-        <v>3139299</v>
+        <v>3277382</v>
       </c>
       <c r="M61" s="13">
-        <v>3277382</v>
+        <v>3399710</v>
       </c>
       <c r="N61" s="13">
-        <v>3399710</v>
+        <v>3728030</v>
       </c>
       <c r="O61" s="13">
-        <v>3728030</v>
+        <v>3849079</v>
       </c>
       <c r="P61" s="13">
-        <v>3849079</v>
+        <v>4280207</v>
       </c>
       <c r="Q61" s="13">
-        <v>4280207</v>
+        <v>3840184</v>
       </c>
       <c r="R61" s="13">
-        <v>3840184</v>
+        <v>4134206</v>
       </c>
       <c r="S61" s="13">
-        <v>4134206</v>
+        <v>3794912</v>
       </c>
       <c r="T61" s="13">
-        <v>3794912</v>
+        <v>4333142</v>
       </c>
       <c r="U61" s="13">
-        <v>4333142</v>
+        <v>4863021</v>
       </c>
       <c r="V61" s="13">
-        <v>4863021</v>
+        <v>4450736</v>
       </c>
       <c r="W61" s="13">
-        <v>4450736</v>
+        <v>5696746</v>
       </c>
       <c r="X61" s="13">
-        <v>5696746</v>
+        <v>5754690</v>
       </c>
       <c r="Y61" s="13">
-        <v>5754690</v>
+        <v>6238462</v>
       </c>
       <c r="Z61" s="13">
-        <v>6238462</v>
+        <v>7021778</v>
       </c>
       <c r="AA61" s="13">
-        <v>7021778</v>
+        <v>6626701</v>
       </c>
       <c r="AB61" s="13">
-        <v>6626701</v>
+        <v>6874092</v>
       </c>
       <c r="AC61" s="13">
-        <v>6874092</v>
+        <v>8541238</v>
       </c>
       <c r="AD61" s="13">
-        <v>8541238</v>
+        <v>9804199</v>
       </c>
       <c r="AE61" s="13">
-        <v>9804199</v>
+        <v>8373282</v>
       </c>
       <c r="AF61" s="13">
-        <v>8373282</v>
+        <v>8410578</v>
       </c>
       <c r="AG61" s="13">
-        <v>8410578</v>
+        <v>8043756</v>
       </c>
       <c r="AH61" s="13">
-        <v>8043756</v>
+        <v>8405586</v>
       </c>
       <c r="AI61" s="13">
-        <v>8405586</v>
+        <v>10227848</v>
       </c>
       <c r="AJ61" s="13">
-        <v>10227848</v>
+        <v>9399403</v>
       </c>
       <c r="AK61" s="13">
-        <v>9399403</v>
+        <v>10484910</v>
       </c>
       <c r="AL61" s="13">
-        <v>10484910</v>
+        <v>10403516</v>
       </c>
       <c r="AM61" s="13">
-        <v>10403516</v>
+        <v>10933959</v>
       </c>
       <c r="AN61" s="13">
-        <v>10933959</v>
+        <v>10813175</v>
       </c>
       <c r="AO61" s="13">
-        <v>10813175</v>
+        <v>10928439</v>
       </c>
       <c r="AP61" s="13">
-        <v>10928439</v>
+        <v>11031256</v>
       </c>
       <c r="AQ61" s="13">
-        <v>11031256</v>
+        <v>12330464</v>
       </c>
       <c r="AR61" s="13">
-        <v>12330464</v>
+        <v>13005656</v>
       </c>
       <c r="AS61" s="13">
-        <v>13005656</v>
+        <v>13115884</v>
       </c>
       <c r="AT61" s="13">
-        <v>13115884</v>
+        <v>12301157</v>
       </c>
       <c r="AU61" s="13">
-        <v>12301157</v>
+        <v>13003596</v>
       </c>
       <c r="AV61" s="13">
-        <v>13003596</v>
+        <v>12770567</v>
       </c>
       <c r="AW61" s="13">
-        <v>12770567</v>
+        <v>12344931</v>
       </c>
       <c r="AX61" s="13">
-        <v>12344931</v>
+        <v>13206456</v>
       </c>
       <c r="AY61" s="13">
-        <v>13206456</v>
+        <v>13525310</v>
       </c>
       <c r="AZ61" s="13">
-        <v>13525310</v>
+        <v>13439651</v>
       </c>
       <c r="BA61" s="13">
-        <v>13439651</v>
+        <v>14852898</v>
       </c>
       <c r="BB61" s="13">
-        <v>14852898</v>
+        <v>14985758</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/chemical/shamla/product/monthly.xlsx
+++ b/database/industries/chemical/shamla/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\chemical\shamla\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\chemical\shamla\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317EB22A-6C89-44BA-9B6C-130E10AF49A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A1CE86-41A0-49AF-938C-DB2720CBFC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="76">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شاملا-معدنی‌ املاح‌  ایران‌</t>
@@ -37,12 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
-  </si>
-  <si>
     <t>ماه 10 منتهی به 1397/10</t>
   </si>
   <si>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>پودر سولفات سدیم</t>
@@ -730,12 +730,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -790,7 +790,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -847,7 +847,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -904,7 +904,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -959,7 +959,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1016,7 +1016,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1073,7 +1073,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1128,7 +1128,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1340,7 +1340,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1397,7 +1397,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1406,157 +1406,157 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>15804</v>
+        <v>15730</v>
       </c>
       <c r="F11" s="11">
-        <v>15801</v>
+        <v>15760</v>
       </c>
       <c r="G11" s="11">
-        <v>15730</v>
+        <v>15201</v>
       </c>
       <c r="H11" s="11">
-        <v>15760</v>
+        <v>15955</v>
       </c>
       <c r="I11" s="11">
+        <v>16125</v>
+      </c>
+      <c r="J11" s="11">
+        <v>15610</v>
+      </c>
+      <c r="K11" s="11">
+        <v>14901</v>
+      </c>
+      <c r="L11" s="11">
+        <v>15520</v>
+      </c>
+      <c r="M11" s="11">
+        <v>15635</v>
+      </c>
+      <c r="N11" s="11">
+        <v>15461</v>
+      </c>
+      <c r="O11" s="11">
+        <v>15661</v>
+      </c>
+      <c r="P11" s="11">
+        <v>15765</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>15971</v>
+      </c>
+      <c r="R11" s="11">
+        <v>15630</v>
+      </c>
+      <c r="S11" s="11">
+        <v>15101</v>
+      </c>
+      <c r="T11" s="11">
+        <v>16421</v>
+      </c>
+      <c r="U11" s="11">
+        <v>16455</v>
+      </c>
+      <c r="V11" s="11">
+        <v>16312</v>
+      </c>
+      <c r="W11" s="11">
+        <v>16119</v>
+      </c>
+      <c r="X11" s="11">
+        <v>15666</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>15164</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>13518</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>15652</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>15520</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>14333</v>
+      </c>
+      <c r="AD11" s="11">
+        <v>15334</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>14519</v>
+      </c>
+      <c r="AF11" s="11">
+        <v>15701</v>
+      </c>
+      <c r="AG11" s="11">
+        <v>15287</v>
+      </c>
+      <c r="AH11" s="11">
+        <v>15735</v>
+      </c>
+      <c r="AI11" s="11">
+        <v>15625</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>14959</v>
+      </c>
+      <c r="AK11" s="11">
+        <v>15595</v>
+      </c>
+      <c r="AL11" s="11">
+        <v>15727</v>
+      </c>
+      <c r="AM11" s="11">
+        <v>15886</v>
+      </c>
+      <c r="AN11" s="11">
+        <v>15837</v>
+      </c>
+      <c r="AO11" s="11">
+        <v>15821</v>
+      </c>
+      <c r="AP11" s="11">
+        <v>15733</v>
+      </c>
+      <c r="AQ11" s="11">
+        <v>15272</v>
+      </c>
+      <c r="AR11" s="11">
+        <v>15886</v>
+      </c>
+      <c r="AS11" s="11">
+        <v>15763</v>
+      </c>
+      <c r="AT11" s="11">
+        <v>15897</v>
+      </c>
+      <c r="AU11" s="11">
+        <v>15904</v>
+      </c>
+      <c r="AV11" s="11">
+        <v>15743</v>
+      </c>
+      <c r="AW11" s="11">
+        <v>15772</v>
+      </c>
+      <c r="AX11" s="11">
+        <v>15566</v>
+      </c>
+      <c r="AY11" s="11">
+        <v>15609</v>
+      </c>
+      <c r="AZ11" s="11">
+        <v>15348</v>
+      </c>
+      <c r="BA11" s="11">
         <v>15201</v>
       </c>
-      <c r="J11" s="11">
-        <v>15955</v>
-      </c>
-      <c r="K11" s="11">
-        <v>16125</v>
-      </c>
-      <c r="L11" s="11">
-        <v>15610</v>
-      </c>
-      <c r="M11" s="11">
-        <v>14901</v>
-      </c>
-      <c r="N11" s="11">
-        <v>15520</v>
-      </c>
-      <c r="O11" s="11">
-        <v>15635</v>
-      </c>
-      <c r="P11" s="11">
-        <v>15461</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>15661</v>
-      </c>
-      <c r="R11" s="11">
-        <v>15765</v>
-      </c>
-      <c r="S11" s="11">
-        <v>15971</v>
-      </c>
-      <c r="T11" s="11">
-        <v>15630</v>
-      </c>
-      <c r="U11" s="11">
-        <v>15101</v>
-      </c>
-      <c r="V11" s="11">
-        <v>16421</v>
-      </c>
-      <c r="W11" s="11">
-        <v>16455</v>
-      </c>
-      <c r="X11" s="11">
-        <v>16312</v>
-      </c>
-      <c r="Y11" s="11">
-        <v>16119</v>
-      </c>
-      <c r="Z11" s="11">
-        <v>15666</v>
-      </c>
-      <c r="AA11" s="11">
-        <v>15164</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>13518</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>15652</v>
-      </c>
-      <c r="AD11" s="11">
-        <v>15520</v>
-      </c>
-      <c r="AE11" s="11">
-        <v>14333</v>
-      </c>
-      <c r="AF11" s="11">
-        <v>15334</v>
-      </c>
-      <c r="AG11" s="11">
-        <v>14519</v>
-      </c>
-      <c r="AH11" s="11">
-        <v>15701</v>
-      </c>
-      <c r="AI11" s="11">
-        <v>15287</v>
-      </c>
-      <c r="AJ11" s="11">
-        <v>15735</v>
-      </c>
-      <c r="AK11" s="11">
-        <v>15625</v>
-      </c>
-      <c r="AL11" s="11">
-        <v>14959</v>
-      </c>
-      <c r="AM11" s="11">
-        <v>15595</v>
-      </c>
-      <c r="AN11" s="11">
-        <v>15727</v>
-      </c>
-      <c r="AO11" s="11">
-        <v>15886</v>
-      </c>
-      <c r="AP11" s="11">
-        <v>15837</v>
-      </c>
-      <c r="AQ11" s="11">
-        <v>15821</v>
-      </c>
-      <c r="AR11" s="11">
-        <v>15733</v>
-      </c>
-      <c r="AS11" s="11">
-        <v>15272</v>
-      </c>
-      <c r="AT11" s="11">
-        <v>15886</v>
-      </c>
-      <c r="AU11" s="11">
-        <v>15763</v>
-      </c>
-      <c r="AV11" s="11">
-        <v>15897</v>
-      </c>
-      <c r="AW11" s="11">
-        <v>15904</v>
-      </c>
-      <c r="AX11" s="11">
-        <v>15743</v>
-      </c>
-      <c r="AY11" s="11">
-        <v>15772</v>
-      </c>
-      <c r="AZ11" s="11">
-        <v>15566</v>
-      </c>
-      <c r="BA11" s="11">
-        <v>15609</v>
-      </c>
       <c r="BB11" s="11">
-        <v>15348</v>
+        <v>15280</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
@@ -1565,157 +1565,157 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>7273</v>
+        <v>6917</v>
       </c>
       <c r="F12" s="13">
-        <v>7017</v>
+        <v>7486</v>
       </c>
       <c r="G12" s="13">
-        <v>6917</v>
+        <v>7100</v>
       </c>
       <c r="H12" s="13">
-        <v>7486</v>
+        <v>4368</v>
       </c>
       <c r="I12" s="13">
-        <v>7100</v>
+        <v>7261</v>
       </c>
       <c r="J12" s="13">
-        <v>4368</v>
+        <v>7646</v>
       </c>
       <c r="K12" s="13">
-        <v>7261</v>
+        <v>8350</v>
       </c>
       <c r="L12" s="13">
-        <v>7646</v>
+        <v>7886</v>
       </c>
       <c r="M12" s="13">
-        <v>8350</v>
+        <v>7648</v>
       </c>
       <c r="N12" s="13">
-        <v>7886</v>
+        <v>6506</v>
       </c>
       <c r="O12" s="13">
-        <v>7648</v>
+        <v>6820</v>
       </c>
       <c r="P12" s="13">
-        <v>6506</v>
+        <v>7149</v>
       </c>
       <c r="Q12" s="13">
-        <v>6820</v>
+        <v>7708</v>
       </c>
       <c r="R12" s="13">
-        <v>7149</v>
+        <v>7201</v>
       </c>
       <c r="S12" s="13">
-        <v>7708</v>
+        <v>6700</v>
       </c>
       <c r="T12" s="13">
-        <v>7201</v>
+        <v>6127</v>
       </c>
       <c r="U12" s="13">
-        <v>6700</v>
+        <v>7128</v>
       </c>
       <c r="V12" s="13">
-        <v>6127</v>
+        <v>5447</v>
       </c>
       <c r="W12" s="13">
-        <v>7128</v>
+        <v>6188</v>
       </c>
       <c r="X12" s="13">
-        <v>5447</v>
+        <v>6464</v>
       </c>
       <c r="Y12" s="13">
-        <v>6188</v>
+        <v>7278</v>
       </c>
       <c r="Z12" s="13">
-        <v>6464</v>
+        <v>6962</v>
       </c>
       <c r="AA12" s="13">
-        <v>7278</v>
+        <v>7140</v>
       </c>
       <c r="AB12" s="13">
-        <v>6962</v>
+        <v>5766</v>
       </c>
       <c r="AC12" s="13">
-        <v>7140</v>
+        <v>6813</v>
       </c>
       <c r="AD12" s="13">
-        <v>5766</v>
+        <v>7250</v>
       </c>
       <c r="AE12" s="13">
-        <v>6813</v>
+        <v>7231</v>
       </c>
       <c r="AF12" s="13">
-        <v>7250</v>
+        <v>7300</v>
       </c>
       <c r="AG12" s="13">
-        <v>7231</v>
+        <v>7379</v>
       </c>
       <c r="AH12" s="13">
-        <v>7300</v>
+        <v>6705</v>
       </c>
       <c r="AI12" s="13">
-        <v>7379</v>
+        <v>7203</v>
       </c>
       <c r="AJ12" s="13">
-        <v>6705</v>
+        <v>7805</v>
       </c>
       <c r="AK12" s="13">
-        <v>7203</v>
+        <v>9122</v>
       </c>
       <c r="AL12" s="13">
-        <v>7805</v>
+        <v>9021</v>
       </c>
       <c r="AM12" s="13">
-        <v>9122</v>
+        <v>7377</v>
       </c>
       <c r="AN12" s="13">
-        <v>9021</v>
+        <v>10276</v>
       </c>
       <c r="AO12" s="13">
-        <v>7377</v>
+        <v>8221</v>
       </c>
       <c r="AP12" s="13">
-        <v>10276</v>
+        <v>8557</v>
       </c>
       <c r="AQ12" s="13">
-        <v>8221</v>
+        <v>9734</v>
       </c>
       <c r="AR12" s="13">
-        <v>8557</v>
+        <v>5339</v>
       </c>
       <c r="AS12" s="13">
-        <v>9734</v>
+        <v>9640</v>
       </c>
       <c r="AT12" s="13">
-        <v>5339</v>
+        <v>10301</v>
       </c>
       <c r="AU12" s="13">
-        <v>9640</v>
+        <v>11100</v>
       </c>
       <c r="AV12" s="13">
-        <v>10301</v>
+        <v>11725</v>
       </c>
       <c r="AW12" s="13">
-        <v>11100</v>
+        <v>11299</v>
       </c>
       <c r="AX12" s="13">
-        <v>11725</v>
+        <v>10400</v>
       </c>
       <c r="AY12" s="13">
-        <v>11299</v>
+        <v>9949</v>
       </c>
       <c r="AZ12" s="13">
-        <v>10400</v>
+        <v>10126</v>
       </c>
       <c r="BA12" s="13">
-        <v>9949</v>
+        <v>7456</v>
       </c>
       <c r="BB12" s="13">
-        <v>10126</v>
+        <v>6131</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>58</v>
       </c>
@@ -1840,11 +1840,11 @@
       <c r="AQ13" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AR13" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS13" s="11" t="s">
-        <v>59</v>
+      <c r="AR13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="11">
+        <v>0</v>
       </c>
       <c r="AT13" s="11">
         <v>0</v>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -1999,11 +1999,11 @@
       <c r="AQ14" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AR14" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS14" s="13" t="s">
-        <v>59</v>
+      <c r="AR14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="13">
+        <v>0</v>
       </c>
       <c r="AT14" s="13">
         <v>0</v>
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>61</v>
       </c>
@@ -2090,7 +2090,7 @@
       <c r="BA15" s="15"/>
       <c r="BB15" s="15"/>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
         <v>62</v>
       </c>
@@ -2150,11 +2150,11 @@
       <c r="V16" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="W16" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="X16" s="17" t="s">
-        <v>59</v>
+      <c r="W16" s="17">
+        <v>0</v>
+      </c>
+      <c r="X16" s="17">
+        <v>0</v>
       </c>
       <c r="Y16" s="17">
         <v>0</v>
@@ -2247,164 +2247,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19">
-        <v>23077</v>
+        <v>22647</v>
       </c>
       <c r="F17" s="19">
-        <v>22818</v>
+        <v>23246</v>
       </c>
       <c r="G17" s="19">
-        <v>22647</v>
+        <v>22301</v>
       </c>
       <c r="H17" s="19">
-        <v>23246</v>
+        <v>20323</v>
       </c>
       <c r="I17" s="19">
-        <v>22301</v>
+        <v>23386</v>
       </c>
       <c r="J17" s="19">
-        <v>20323</v>
+        <v>23256</v>
       </c>
       <c r="K17" s="19">
-        <v>23386</v>
+        <v>23251</v>
       </c>
       <c r="L17" s="19">
-        <v>23256</v>
+        <v>23406</v>
       </c>
       <c r="M17" s="19">
-        <v>23251</v>
+        <v>23283</v>
       </c>
       <c r="N17" s="19">
-        <v>23406</v>
+        <v>21967</v>
       </c>
       <c r="O17" s="19">
-        <v>23283</v>
+        <v>22481</v>
       </c>
       <c r="P17" s="19">
-        <v>21967</v>
+        <v>22914</v>
       </c>
       <c r="Q17" s="19">
-        <v>22481</v>
+        <v>23679</v>
       </c>
       <c r="R17" s="19">
-        <v>22914</v>
+        <v>22831</v>
       </c>
       <c r="S17" s="19">
-        <v>23679</v>
+        <v>21801</v>
       </c>
       <c r="T17" s="19">
-        <v>22831</v>
+        <v>22548</v>
       </c>
       <c r="U17" s="19">
-        <v>21801</v>
+        <v>23583</v>
       </c>
       <c r="V17" s="19">
-        <v>22548</v>
+        <v>21759</v>
       </c>
       <c r="W17" s="19">
-        <v>23583</v>
+        <v>22307</v>
       </c>
       <c r="X17" s="19">
-        <v>21759</v>
+        <v>22130</v>
       </c>
       <c r="Y17" s="19">
-        <v>22307</v>
+        <v>22442</v>
       </c>
       <c r="Z17" s="19">
-        <v>22130</v>
+        <v>20480</v>
       </c>
       <c r="AA17" s="19">
-        <v>22442</v>
+        <v>22792</v>
       </c>
       <c r="AB17" s="19">
-        <v>20480</v>
+        <v>21286</v>
       </c>
       <c r="AC17" s="19">
-        <v>22792</v>
+        <v>21146</v>
       </c>
       <c r="AD17" s="19">
-        <v>21286</v>
+        <v>22584</v>
       </c>
       <c r="AE17" s="19">
-        <v>21146</v>
+        <v>21750</v>
       </c>
       <c r="AF17" s="19">
-        <v>22584</v>
+        <v>23001</v>
       </c>
       <c r="AG17" s="19">
-        <v>21750</v>
+        <v>22666</v>
       </c>
       <c r="AH17" s="19">
-        <v>23001</v>
+        <v>22440</v>
       </c>
       <c r="AI17" s="19">
-        <v>22666</v>
+        <v>22828</v>
       </c>
       <c r="AJ17" s="19">
-        <v>22440</v>
+        <v>22764</v>
       </c>
       <c r="AK17" s="19">
-        <v>22828</v>
+        <v>24717</v>
       </c>
       <c r="AL17" s="19">
-        <v>22764</v>
+        <v>24748</v>
       </c>
       <c r="AM17" s="19">
-        <v>24717</v>
+        <v>23263</v>
       </c>
       <c r="AN17" s="19">
-        <v>24748</v>
+        <v>26113</v>
       </c>
       <c r="AO17" s="19">
-        <v>23263</v>
+        <v>24042</v>
       </c>
       <c r="AP17" s="19">
-        <v>26113</v>
+        <v>24290</v>
       </c>
       <c r="AQ17" s="19">
-        <v>24042</v>
+        <v>25006</v>
       </c>
       <c r="AR17" s="19">
-        <v>24290</v>
+        <v>21225</v>
       </c>
       <c r="AS17" s="19">
-        <v>25006</v>
+        <v>25403</v>
       </c>
       <c r="AT17" s="19">
-        <v>21225</v>
+        <v>26198</v>
       </c>
       <c r="AU17" s="19">
-        <v>25403</v>
+        <v>27004</v>
       </c>
       <c r="AV17" s="19">
-        <v>26198</v>
+        <v>27468</v>
       </c>
       <c r="AW17" s="19">
-        <v>27004</v>
+        <v>27071</v>
       </c>
       <c r="AX17" s="19">
-        <v>27468</v>
+        <v>25966</v>
       </c>
       <c r="AY17" s="19">
-        <v>27071</v>
+        <v>25558</v>
       </c>
       <c r="AZ17" s="19">
-        <v>25966</v>
+        <v>25474</v>
       </c>
       <c r="BA17" s="19">
-        <v>25558</v>
+        <v>22657</v>
       </c>
       <c r="BB17" s="19">
-        <v>25474</v>
+        <v>21411</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2459,7 +2459,7 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2514,7 +2514,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2569,7 +2569,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>64</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2781,7 +2781,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
         <v>64</v>
       </c>
@@ -2838,7 +2838,7 @@
       <c r="BA23" s="9"/>
       <c r="BB23" s="9"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>55</v>
       </c>
@@ -2847,157 +2847,157 @@
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11">
-        <v>15937</v>
+        <v>15755</v>
       </c>
       <c r="F24" s="11">
-        <v>14852</v>
+        <v>15809</v>
       </c>
       <c r="G24" s="11">
-        <v>15755</v>
+        <v>14794</v>
       </c>
       <c r="H24" s="11">
-        <v>15809</v>
+        <v>12023</v>
       </c>
       <c r="I24" s="11">
-        <v>14794</v>
+        <v>19627</v>
       </c>
       <c r="J24" s="11">
-        <v>12023</v>
+        <v>14425</v>
       </c>
       <c r="K24" s="11">
-        <v>19627</v>
+        <v>16070</v>
       </c>
       <c r="L24" s="11">
-        <v>14425</v>
+        <v>12739</v>
       </c>
       <c r="M24" s="11">
-        <v>16070</v>
+        <v>15869</v>
       </c>
       <c r="N24" s="11">
-        <v>12739</v>
+        <v>15153</v>
       </c>
       <c r="O24" s="11">
-        <v>15869</v>
+        <v>14462</v>
       </c>
       <c r="P24" s="11">
-        <v>15153</v>
+        <v>14444</v>
       </c>
       <c r="Q24" s="11">
-        <v>14462</v>
+        <v>17554</v>
       </c>
       <c r="R24" s="11">
-        <v>14444</v>
+        <v>19445</v>
       </c>
       <c r="S24" s="11">
-        <v>17554</v>
+        <v>15615</v>
       </c>
       <c r="T24" s="11">
-        <v>19445</v>
+        <v>13581</v>
       </c>
       <c r="U24" s="11">
-        <v>15615</v>
+        <v>19202</v>
       </c>
       <c r="V24" s="11">
-        <v>13581</v>
+        <v>16600</v>
       </c>
       <c r="W24" s="11">
-        <v>19202</v>
+        <v>16926</v>
       </c>
       <c r="X24" s="11">
-        <v>16600</v>
+        <v>15104</v>
       </c>
       <c r="Y24" s="11">
-        <v>16926</v>
+        <v>15516</v>
       </c>
       <c r="Z24" s="11">
-        <v>15104</v>
+        <v>13576</v>
       </c>
       <c r="AA24" s="11">
-        <v>15516</v>
+        <v>15213</v>
       </c>
       <c r="AB24" s="11">
-        <v>13576</v>
+        <v>15474</v>
       </c>
       <c r="AC24" s="11">
-        <v>15213</v>
+        <v>14644</v>
       </c>
       <c r="AD24" s="11">
-        <v>15474</v>
+        <v>15011</v>
       </c>
       <c r="AE24" s="11">
-        <v>14644</v>
+        <v>13407</v>
       </c>
       <c r="AF24" s="11">
-        <v>15011</v>
+        <v>12764</v>
       </c>
       <c r="AG24" s="11">
-        <v>13407</v>
+        <v>17686</v>
       </c>
       <c r="AH24" s="11">
-        <v>12764</v>
+        <v>16545</v>
       </c>
       <c r="AI24" s="11">
-        <v>17686</v>
+        <v>16091</v>
       </c>
       <c r="AJ24" s="11">
-        <v>16545</v>
+        <v>11985</v>
       </c>
       <c r="AK24" s="11">
-        <v>16091</v>
+        <v>17158</v>
       </c>
       <c r="AL24" s="11">
-        <v>11985</v>
+        <v>14588</v>
       </c>
       <c r="AM24" s="11">
-        <v>17158</v>
+        <v>16241</v>
       </c>
       <c r="AN24" s="11">
-        <v>14588</v>
+        <v>14765</v>
       </c>
       <c r="AO24" s="11">
-        <v>16241</v>
+        <v>12219</v>
       </c>
       <c r="AP24" s="11">
-        <v>14765</v>
+        <v>11668</v>
       </c>
       <c r="AQ24" s="11">
-        <v>12219</v>
+        <v>21269</v>
       </c>
       <c r="AR24" s="11">
-        <v>11668</v>
+        <v>3991</v>
       </c>
       <c r="AS24" s="11">
-        <v>21269</v>
+        <v>15860</v>
       </c>
       <c r="AT24" s="11">
-        <v>3991</v>
+        <v>21987</v>
       </c>
       <c r="AU24" s="11">
-        <v>15860</v>
+        <v>20340</v>
       </c>
       <c r="AV24" s="11">
-        <v>21987</v>
+        <v>16581</v>
       </c>
       <c r="AW24" s="11">
-        <v>20340</v>
+        <v>13718</v>
       </c>
       <c r="AX24" s="11">
-        <v>16581</v>
+        <v>11322</v>
       </c>
       <c r="AY24" s="11">
-        <v>13718</v>
+        <v>15876</v>
       </c>
       <c r="AZ24" s="11">
-        <v>11322</v>
+        <v>19100</v>
       </c>
       <c r="BA24" s="11">
-        <v>15876</v>
+        <v>15911</v>
       </c>
       <c r="BB24" s="11">
-        <v>19100</v>
+        <v>18204</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>57</v>
       </c>
@@ -3006,157 +3006,157 @@
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13">
-        <v>7742</v>
+        <v>5424</v>
       </c>
       <c r="F25" s="13">
-        <v>6200</v>
+        <v>8010</v>
       </c>
       <c r="G25" s="13">
-        <v>5424</v>
+        <v>6798</v>
       </c>
       <c r="H25" s="13">
-        <v>8010</v>
+        <v>4823</v>
       </c>
       <c r="I25" s="13">
-        <v>6798</v>
+        <v>8593</v>
       </c>
       <c r="J25" s="13">
-        <v>4823</v>
+        <v>6875</v>
       </c>
       <c r="K25" s="13">
-        <v>8593</v>
+        <v>8979</v>
       </c>
       <c r="L25" s="13">
-        <v>6875</v>
+        <v>6486</v>
       </c>
       <c r="M25" s="13">
-        <v>8979</v>
+        <v>6891</v>
       </c>
       <c r="N25" s="13">
-        <v>6486</v>
+        <v>6952</v>
       </c>
       <c r="O25" s="13">
-        <v>6891</v>
+        <v>7396</v>
       </c>
       <c r="P25" s="13">
-        <v>6952</v>
+        <v>7101</v>
       </c>
       <c r="Q25" s="13">
-        <v>7396</v>
+        <v>8333</v>
       </c>
       <c r="R25" s="13">
-        <v>7101</v>
+        <v>6961</v>
       </c>
       <c r="S25" s="13">
-        <v>8333</v>
+        <v>5906</v>
       </c>
       <c r="T25" s="13">
-        <v>6961</v>
+        <v>7612</v>
       </c>
       <c r="U25" s="13">
-        <v>5906</v>
+        <v>6084</v>
       </c>
       <c r="V25" s="13">
-        <v>7612</v>
+        <v>6184</v>
       </c>
       <c r="W25" s="13">
-        <v>6084</v>
+        <v>6500</v>
       </c>
       <c r="X25" s="13">
-        <v>6184</v>
+        <v>5648</v>
       </c>
       <c r="Y25" s="13">
-        <v>6500</v>
+        <v>7056</v>
       </c>
       <c r="Z25" s="13">
-        <v>5648</v>
+        <v>7156</v>
       </c>
       <c r="AA25" s="13">
-        <v>7056</v>
+        <v>6511</v>
       </c>
       <c r="AB25" s="13">
-        <v>7156</v>
+        <v>5858</v>
       </c>
       <c r="AC25" s="13">
-        <v>6511</v>
+        <v>7493</v>
       </c>
       <c r="AD25" s="13">
-        <v>5858</v>
+        <v>7185</v>
       </c>
       <c r="AE25" s="13">
-        <v>7493</v>
+        <v>6879</v>
       </c>
       <c r="AF25" s="13">
-        <v>7185</v>
+        <v>7483</v>
       </c>
       <c r="AG25" s="13">
-        <v>6879</v>
+        <v>6241</v>
       </c>
       <c r="AH25" s="13">
-        <v>7483</v>
+        <v>7709</v>
       </c>
       <c r="AI25" s="13">
-        <v>6241</v>
+        <v>6859</v>
       </c>
       <c r="AJ25" s="13">
-        <v>7709</v>
+        <v>7566</v>
       </c>
       <c r="AK25" s="13">
-        <v>6859</v>
+        <v>8525</v>
       </c>
       <c r="AL25" s="13">
-        <v>7566</v>
+        <v>8334</v>
       </c>
       <c r="AM25" s="13">
-        <v>8525</v>
+        <v>8650</v>
       </c>
       <c r="AN25" s="13">
-        <v>8334</v>
+        <v>9758</v>
       </c>
       <c r="AO25" s="13">
-        <v>8650</v>
+        <v>7783</v>
       </c>
       <c r="AP25" s="13">
-        <v>9758</v>
+        <v>8133</v>
       </c>
       <c r="AQ25" s="13">
-        <v>7783</v>
+        <v>8940</v>
       </c>
       <c r="AR25" s="13">
-        <v>8133</v>
+        <v>6827</v>
       </c>
       <c r="AS25" s="13">
-        <v>8940</v>
+        <v>9733</v>
       </c>
       <c r="AT25" s="13">
-        <v>6827</v>
+        <v>10648</v>
       </c>
       <c r="AU25" s="13">
-        <v>9733</v>
+        <v>10289</v>
       </c>
       <c r="AV25" s="13">
-        <v>10648</v>
+        <v>12143</v>
       </c>
       <c r="AW25" s="13">
-        <v>10289</v>
+        <v>10253</v>
       </c>
       <c r="AX25" s="13">
-        <v>12143</v>
+        <v>10083</v>
       </c>
       <c r="AY25" s="13">
-        <v>10253</v>
+        <v>10265</v>
       </c>
       <c r="AZ25" s="13">
-        <v>10083</v>
+        <v>10392</v>
       </c>
       <c r="BA25" s="13">
-        <v>10265</v>
+        <v>9537</v>
       </c>
       <c r="BB25" s="13">
-        <v>10392</v>
+        <v>6224</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>58</v>
       </c>
@@ -3281,11 +3281,11 @@
       <c r="AQ26" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AR26" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS26" s="11" t="s">
-        <v>59</v>
+      <c r="AR26" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="11">
+        <v>0</v>
       </c>
       <c r="AT26" s="11">
         <v>0</v>
@@ -3315,7 +3315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>60</v>
       </c>
@@ -3440,11 +3440,11 @@
       <c r="AQ27" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AR27" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS27" s="13" t="s">
-        <v>59</v>
+      <c r="AR27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="13">
+        <v>0</v>
       </c>
       <c r="AT27" s="13">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
         <v>61</v>
       </c>
@@ -3531,7 +3531,7 @@
       <c r="BA28" s="15"/>
       <c r="BB28" s="15"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
         <v>62</v>
       </c>
@@ -3591,11 +3591,11 @@
       <c r="V29" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="W29" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="X29" s="17" t="s">
-        <v>59</v>
+      <c r="W29" s="17">
+        <v>0</v>
+      </c>
+      <c r="X29" s="17">
+        <v>0</v>
       </c>
       <c r="Y29" s="17">
         <v>0</v>
@@ -3688,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>65</v>
       </c>
@@ -3745,7 +3745,7 @@
       <c r="BA30" s="9"/>
       <c r="BB30" s="9"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>55</v>
       </c>
@@ -3807,11 +3807,11 @@
       <c r="V31" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="W31" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="X31" s="11" t="s">
-        <v>59</v>
+      <c r="W31" s="11">
+        <v>0</v>
+      </c>
+      <c r="X31" s="11">
+        <v>0</v>
       </c>
       <c r="Y31" s="11">
         <v>0</v>
@@ -3837,11 +3837,11 @@
       <c r="AF31" s="11">
         <v>0</v>
       </c>
-      <c r="AG31" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH31" s="11">
-        <v>0</v>
+      <c r="AG31" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH31" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="AI31" s="11" t="s">
         <v>59</v>
@@ -3904,7 +3904,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>57</v>
       </c>
@@ -3966,11 +3966,11 @@
       <c r="V32" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="W32" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="X32" s="13" t="s">
-        <v>59</v>
+      <c r="W32" s="13">
+        <v>0</v>
+      </c>
+      <c r="X32" s="13">
+        <v>0</v>
       </c>
       <c r="Y32" s="13">
         <v>0</v>
@@ -3996,11 +3996,11 @@
       <c r="AF32" s="13">
         <v>0</v>
       </c>
-      <c r="AG32" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH32" s="13">
-        <v>0</v>
+      <c r="AG32" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH32" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="AI32" s="13" t="s">
         <v>59</v>
@@ -4063,7 +4063,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
         <v>66</v>
       </c>
@@ -4123,11 +4123,11 @@
       <c r="V33" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="W33" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="X33" s="17" t="s">
-        <v>59</v>
+      <c r="W33" s="17">
+        <v>0</v>
+      </c>
+      <c r="X33" s="17">
+        <v>0</v>
       </c>
       <c r="Y33" s="17">
         <v>0</v>
@@ -4220,164 +4220,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19">
-        <v>23679</v>
+        <v>21179</v>
       </c>
       <c r="F34" s="19">
-        <v>21052</v>
+        <v>23819</v>
       </c>
       <c r="G34" s="19">
-        <v>21179</v>
+        <v>21592</v>
       </c>
       <c r="H34" s="19">
-        <v>23819</v>
+        <v>16846</v>
       </c>
       <c r="I34" s="19">
-        <v>21592</v>
+        <v>28220</v>
       </c>
       <c r="J34" s="19">
-        <v>16846</v>
+        <v>21300</v>
       </c>
       <c r="K34" s="19">
-        <v>28220</v>
+        <v>25049</v>
       </c>
       <c r="L34" s="19">
-        <v>21300</v>
+        <v>19225</v>
       </c>
       <c r="M34" s="19">
-        <v>25049</v>
+        <v>22760</v>
       </c>
       <c r="N34" s="19">
-        <v>19225</v>
+        <v>22105</v>
       </c>
       <c r="O34" s="19">
-        <v>22760</v>
+        <v>21858</v>
       </c>
       <c r="P34" s="19">
-        <v>22105</v>
+        <v>21545</v>
       </c>
       <c r="Q34" s="19">
-        <v>21858</v>
+        <v>25887</v>
       </c>
       <c r="R34" s="19">
-        <v>21545</v>
+        <v>26406</v>
       </c>
       <c r="S34" s="19">
-        <v>25887</v>
+        <v>21521</v>
       </c>
       <c r="T34" s="19">
-        <v>26406</v>
+        <v>21193</v>
       </c>
       <c r="U34" s="19">
-        <v>21521</v>
+        <v>25286</v>
       </c>
       <c r="V34" s="19">
-        <v>21193</v>
+        <v>22784</v>
       </c>
       <c r="W34" s="19">
-        <v>25286</v>
+        <v>23426</v>
       </c>
       <c r="X34" s="19">
-        <v>22784</v>
+        <v>20752</v>
       </c>
       <c r="Y34" s="19">
-        <v>23426</v>
+        <v>22572</v>
       </c>
       <c r="Z34" s="19">
-        <v>20752</v>
+        <v>20732</v>
       </c>
       <c r="AA34" s="19">
-        <v>22572</v>
+        <v>21724</v>
       </c>
       <c r="AB34" s="19">
-        <v>20732</v>
+        <v>21332</v>
       </c>
       <c r="AC34" s="19">
-        <v>21724</v>
+        <v>22137</v>
       </c>
       <c r="AD34" s="19">
-        <v>21332</v>
+        <v>22196</v>
       </c>
       <c r="AE34" s="19">
-        <v>22137</v>
+        <v>20286</v>
       </c>
       <c r="AF34" s="19">
-        <v>22196</v>
+        <v>20247</v>
       </c>
       <c r="AG34" s="19">
-        <v>20286</v>
+        <v>23927</v>
       </c>
       <c r="AH34" s="19">
-        <v>20247</v>
+        <v>24254</v>
       </c>
       <c r="AI34" s="19">
-        <v>23927</v>
+        <v>22950</v>
       </c>
       <c r="AJ34" s="19">
-        <v>24254</v>
+        <v>19551</v>
       </c>
       <c r="AK34" s="19">
-        <v>22950</v>
+        <v>25683</v>
       </c>
       <c r="AL34" s="19">
-        <v>19551</v>
+        <v>22922</v>
       </c>
       <c r="AM34" s="19">
-        <v>25683</v>
+        <v>24891</v>
       </c>
       <c r="AN34" s="19">
-        <v>22922</v>
+        <v>24523</v>
       </c>
       <c r="AO34" s="19">
-        <v>24891</v>
+        <v>20002</v>
       </c>
       <c r="AP34" s="19">
-        <v>24523</v>
+        <v>19801</v>
       </c>
       <c r="AQ34" s="19">
-        <v>20002</v>
+        <v>30209</v>
       </c>
       <c r="AR34" s="19">
-        <v>19801</v>
+        <v>10818</v>
       </c>
       <c r="AS34" s="19">
-        <v>30209</v>
+        <v>25593</v>
       </c>
       <c r="AT34" s="19">
-        <v>10818</v>
+        <v>32635</v>
       </c>
       <c r="AU34" s="19">
-        <v>25593</v>
+        <v>30629</v>
       </c>
       <c r="AV34" s="19">
-        <v>32635</v>
+        <v>28724</v>
       </c>
       <c r="AW34" s="19">
-        <v>30629</v>
+        <v>23971</v>
       </c>
       <c r="AX34" s="19">
-        <v>28724</v>
+        <v>21405</v>
       </c>
       <c r="AY34" s="19">
-        <v>23971</v>
+        <v>26141</v>
       </c>
       <c r="AZ34" s="19">
-        <v>21405</v>
+        <v>29492</v>
       </c>
       <c r="BA34" s="19">
-        <v>26141</v>
+        <v>25448</v>
       </c>
       <c r="BB34" s="19">
-        <v>29492</v>
+        <v>24428</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -4432,7 +4432,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -4487,7 +4487,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -4542,7 +4542,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
         <v>67</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -4754,7 +4754,7 @@
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
         <v>67</v>
       </c>
@@ -4811,7 +4811,7 @@
       <c r="BA40" s="9"/>
       <c r="BB40" s="9"/>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>55</v>
       </c>
@@ -4820,157 +4820,157 @@
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
-        <v>170531</v>
+        <v>189211</v>
       </c>
       <c r="F41" s="11">
-        <v>177396</v>
+        <v>192324</v>
       </c>
       <c r="G41" s="11">
-        <v>189211</v>
+        <v>177662</v>
       </c>
       <c r="H41" s="11">
-        <v>192324</v>
+        <v>168928</v>
       </c>
       <c r="I41" s="11">
-        <v>177662</v>
+        <v>258204</v>
       </c>
       <c r="J41" s="11">
-        <v>168928</v>
+        <v>181648</v>
       </c>
       <c r="K41" s="11">
-        <v>258204</v>
+        <v>233528</v>
       </c>
       <c r="L41" s="11">
-        <v>181648</v>
+        <v>159840</v>
       </c>
       <c r="M41" s="11">
-        <v>233528</v>
+        <v>218600</v>
       </c>
       <c r="N41" s="11">
-        <v>159840</v>
+        <v>217045</v>
       </c>
       <c r="O41" s="11">
-        <v>218600</v>
+        <v>194925</v>
       </c>
       <c r="P41" s="11">
-        <v>217045</v>
+        <v>200040</v>
       </c>
       <c r="Q41" s="11">
-        <v>194925</v>
+        <v>246996</v>
       </c>
       <c r="R41" s="11">
-        <v>200040</v>
+        <v>277238</v>
       </c>
       <c r="S41" s="11">
-        <v>246996</v>
+        <v>219149</v>
       </c>
       <c r="T41" s="11">
-        <v>277238</v>
+        <v>167884</v>
       </c>
       <c r="U41" s="11">
-        <v>219149</v>
+        <v>254460</v>
       </c>
       <c r="V41" s="11">
-        <v>167884</v>
+        <v>215765</v>
       </c>
       <c r="W41" s="11">
-        <v>254460</v>
+        <v>246738</v>
       </c>
       <c r="X41" s="11">
-        <v>215765</v>
+        <v>227469</v>
       </c>
       <c r="Y41" s="11">
-        <v>246738</v>
+        <v>234095</v>
       </c>
       <c r="Z41" s="11">
-        <v>227469</v>
+        <v>230177</v>
       </c>
       <c r="AA41" s="11">
-        <v>234095</v>
+        <v>295754</v>
       </c>
       <c r="AB41" s="11">
-        <v>230177</v>
+        <v>329620</v>
       </c>
       <c r="AC41" s="11">
-        <v>295754</v>
+        <v>376397</v>
       </c>
       <c r="AD41" s="11">
-        <v>329620</v>
+        <v>426246</v>
       </c>
       <c r="AE41" s="11">
-        <v>376397</v>
+        <v>385238</v>
       </c>
       <c r="AF41" s="11">
-        <v>426246</v>
+        <v>327538</v>
       </c>
       <c r="AG41" s="11">
-        <v>385238</v>
+        <v>453017</v>
       </c>
       <c r="AH41" s="11">
-        <v>327538</v>
+        <v>422359</v>
       </c>
       <c r="AI41" s="11">
-        <v>453017</v>
+        <v>417870</v>
       </c>
       <c r="AJ41" s="11">
-        <v>422359</v>
+        <v>307576</v>
       </c>
       <c r="AK41" s="11">
-        <v>417870</v>
+        <v>445603</v>
       </c>
       <c r="AL41" s="11">
-        <v>307576</v>
+        <v>398058</v>
       </c>
       <c r="AM41" s="11">
-        <v>445603</v>
+        <v>460037</v>
       </c>
       <c r="AN41" s="11">
-        <v>398058</v>
+        <v>420127</v>
       </c>
       <c r="AO41" s="11">
-        <v>460037</v>
+        <v>348851</v>
       </c>
       <c r="AP41" s="11">
-        <v>420127</v>
+        <v>343127</v>
       </c>
       <c r="AQ41" s="11">
-        <v>348851</v>
+        <v>605488</v>
       </c>
       <c r="AR41" s="11">
-        <v>343127</v>
+        <v>113319</v>
       </c>
       <c r="AS41" s="11">
-        <v>605488</v>
+        <v>449871</v>
       </c>
       <c r="AT41" s="11">
-        <v>113319</v>
+        <v>646834</v>
       </c>
       <c r="AU41" s="11">
-        <v>449871</v>
+        <v>633593</v>
       </c>
       <c r="AV41" s="11">
-        <v>646834</v>
+        <v>537098</v>
       </c>
       <c r="AW41" s="11">
-        <v>633593</v>
+        <v>484571</v>
       </c>
       <c r="AX41" s="11">
-        <v>537098</v>
+        <v>400036</v>
       </c>
       <c r="AY41" s="11">
-        <v>484571</v>
+        <v>571922</v>
       </c>
       <c r="AZ41" s="11">
-        <v>400036</v>
+        <v>680319</v>
       </c>
       <c r="BA41" s="11">
-        <v>571922</v>
+        <v>565593</v>
       </c>
       <c r="BB41" s="11">
-        <v>680319</v>
+        <v>663434</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>57</v>
       </c>
@@ -4979,157 +4979,157 @@
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13">
-        <v>21897</v>
+        <v>20102</v>
       </c>
       <c r="F42" s="13">
-        <v>21626</v>
+        <v>26766</v>
       </c>
       <c r="G42" s="13">
-        <v>20102</v>
+        <v>25798</v>
       </c>
       <c r="H42" s="13">
-        <v>26766</v>
+        <v>18825</v>
       </c>
       <c r="I42" s="13">
-        <v>25798</v>
+        <v>26976</v>
       </c>
       <c r="J42" s="13">
-        <v>18825</v>
+        <v>22532</v>
       </c>
       <c r="K42" s="13">
-        <v>26976</v>
+        <v>30526</v>
       </c>
       <c r="L42" s="13">
-        <v>22532</v>
+        <v>24180</v>
       </c>
       <c r="M42" s="13">
-        <v>30526</v>
+        <v>26524</v>
       </c>
       <c r="N42" s="13">
-        <v>24180</v>
+        <v>29756</v>
       </c>
       <c r="O42" s="13">
-        <v>26524</v>
+        <v>28402</v>
       </c>
       <c r="P42" s="13">
-        <v>29756</v>
+        <v>29357</v>
       </c>
       <c r="Q42" s="13">
-        <v>28402</v>
+        <v>31623</v>
       </c>
       <c r="R42" s="13">
-        <v>29357</v>
+        <v>30163</v>
       </c>
       <c r="S42" s="13">
-        <v>31623</v>
+        <v>28721</v>
       </c>
       <c r="T42" s="13">
-        <v>30163</v>
+        <v>33879</v>
       </c>
       <c r="U42" s="13">
-        <v>28721</v>
+        <v>34659</v>
       </c>
       <c r="V42" s="13">
-        <v>33879</v>
+        <v>35587</v>
       </c>
       <c r="W42" s="13">
-        <v>34659</v>
+        <v>40550</v>
       </c>
       <c r="X42" s="13">
-        <v>35587</v>
+        <v>39659</v>
       </c>
       <c r="Y42" s="13">
-        <v>40550</v>
+        <v>46758</v>
       </c>
       <c r="Z42" s="13">
-        <v>39659</v>
+        <v>49191</v>
       </c>
       <c r="AA42" s="13">
-        <v>46758</v>
+        <v>55612</v>
       </c>
       <c r="AB42" s="13">
-        <v>49191</v>
+        <v>57433</v>
       </c>
       <c r="AC42" s="13">
-        <v>55612</v>
+        <v>62741</v>
       </c>
       <c r="AD42" s="13">
-        <v>57433</v>
+        <v>60430</v>
       </c>
       <c r="AE42" s="13">
-        <v>62741</v>
+        <v>55333</v>
       </c>
       <c r="AF42" s="13">
-        <v>60430</v>
+        <v>62899</v>
       </c>
       <c r="AG42" s="13">
-        <v>55333</v>
+        <v>63832</v>
       </c>
       <c r="AH42" s="13">
-        <v>62899</v>
+        <v>72460</v>
       </c>
       <c r="AI42" s="13">
-        <v>63832</v>
+        <v>71916</v>
       </c>
       <c r="AJ42" s="13">
-        <v>72460</v>
+        <v>78713</v>
       </c>
       <c r="AK42" s="13">
-        <v>71916</v>
+        <v>93212</v>
       </c>
       <c r="AL42" s="13">
-        <v>78713</v>
+        <v>90117</v>
       </c>
       <c r="AM42" s="13">
-        <v>93212</v>
+        <v>94531</v>
       </c>
       <c r="AN42" s="13">
-        <v>90117</v>
+        <v>107643</v>
       </c>
       <c r="AO42" s="13">
-        <v>94531</v>
+        <v>95968</v>
       </c>
       <c r="AP42" s="13">
-        <v>107643</v>
+        <v>105775</v>
       </c>
       <c r="AQ42" s="13">
-        <v>95968</v>
+        <v>117256</v>
       </c>
       <c r="AR42" s="13">
-        <v>105775</v>
+        <v>83980</v>
       </c>
       <c r="AS42" s="13">
-        <v>117256</v>
+        <v>126564</v>
       </c>
       <c r="AT42" s="13">
-        <v>83980</v>
+        <v>135981</v>
       </c>
       <c r="AU42" s="13">
-        <v>126564</v>
+        <v>127017</v>
       </c>
       <c r="AV42" s="13">
-        <v>135981</v>
+        <v>160366</v>
       </c>
       <c r="AW42" s="13">
-        <v>127017</v>
+        <v>138675</v>
       </c>
       <c r="AX42" s="13">
-        <v>160366</v>
+        <v>135512</v>
       </c>
       <c r="AY42" s="13">
-        <v>138675</v>
+        <v>152465</v>
       </c>
       <c r="AZ42" s="13">
-        <v>135512</v>
+        <v>155732</v>
       </c>
       <c r="BA42" s="13">
-        <v>152465</v>
+        <v>149446</v>
       </c>
       <c r="BB42" s="13">
-        <v>155732</v>
+        <v>97387</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>58</v>
       </c>
@@ -5254,11 +5254,11 @@
       <c r="AQ43" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AR43" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS43" s="11" t="s">
-        <v>59</v>
+      <c r="AR43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS43" s="11">
+        <v>0</v>
       </c>
       <c r="AT43" s="11">
         <v>0</v>
@@ -5288,7 +5288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>60</v>
       </c>
@@ -5413,11 +5413,11 @@
       <c r="AQ44" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AR44" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS44" s="13" t="s">
-        <v>59</v>
+      <c r="AR44" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS44" s="13">
+        <v>0</v>
       </c>
       <c r="AT44" s="13">
         <v>0</v>
@@ -5447,7 +5447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
         <v>69</v>
       </c>
@@ -5504,7 +5504,7 @@
       <c r="BA45" s="15"/>
       <c r="BB45" s="15"/>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
         <v>62</v>
       </c>
@@ -5566,11 +5566,11 @@
       <c r="V46" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="W46" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="X46" s="17" t="s">
-        <v>59</v>
+      <c r="W46" s="17">
+        <v>0</v>
+      </c>
+      <c r="X46" s="17">
+        <v>0</v>
       </c>
       <c r="Y46" s="17">
         <v>0</v>
@@ -5663,7 +5663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
         <v>70</v>
       </c>
@@ -5720,7 +5720,7 @@
       <c r="BA47" s="9"/>
       <c r="BB47" s="9"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>55</v>
       </c>
@@ -5782,11 +5782,11 @@
       <c r="V48" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="W48" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="X48" s="11" t="s">
-        <v>59</v>
+      <c r="W48" s="11">
+        <v>0</v>
+      </c>
+      <c r="X48" s="11">
+        <v>0</v>
       </c>
       <c r="Y48" s="11">
         <v>0</v>
@@ -5845,11 +5845,11 @@
       <c r="AQ48" s="11">
         <v>0</v>
       </c>
-      <c r="AR48" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS48" s="11">
-        <v>0</v>
+      <c r="AR48" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS48" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="AT48" s="11" t="s">
         <v>59</v>
@@ -5879,7 +5879,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
         <v>57</v>
       </c>
@@ -5941,11 +5941,11 @@
       <c r="V49" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="W49" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="X49" s="13" t="s">
-        <v>59</v>
+      <c r="W49" s="13">
+        <v>0</v>
+      </c>
+      <c r="X49" s="13">
+        <v>0</v>
       </c>
       <c r="Y49" s="13">
         <v>0</v>
@@ -6004,11 +6004,11 @@
       <c r="AQ49" s="13">
         <v>0</v>
       </c>
-      <c r="AR49" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS49" s="13">
-        <v>0</v>
+      <c r="AR49" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS49" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="AT49" s="13" t="s">
         <v>59</v>
@@ -6038,7 +6038,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="16" t="s">
         <v>66</v>
       </c>
@@ -6100,11 +6100,11 @@
       <c r="V50" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="W50" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="X50" s="17" t="s">
-        <v>59</v>
+      <c r="W50" s="17">
+        <v>0</v>
+      </c>
+      <c r="X50" s="17">
+        <v>0</v>
       </c>
       <c r="Y50" s="17">
         <v>0</v>
@@ -6197,7 +6197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
         <v>71</v>
       </c>
@@ -6254,7 +6254,7 @@
       <c r="BA51" s="9"/>
       <c r="BB51" s="9"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>72</v>
       </c>
@@ -6316,11 +6316,11 @@
       <c r="V52" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="W52" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="X52" s="11" t="s">
-        <v>59</v>
+      <c r="W52" s="11">
+        <v>0</v>
+      </c>
+      <c r="X52" s="11">
+        <v>0</v>
       </c>
       <c r="Y52" s="11">
         <v>0</v>
@@ -6413,164 +6413,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C53" s="19"/>
       <c r="D53" s="19"/>
       <c r="E53" s="19">
-        <v>192428</v>
+        <v>209313</v>
       </c>
       <c r="F53" s="19">
-        <v>199022</v>
+        <v>219090</v>
       </c>
       <c r="G53" s="19">
-        <v>209313</v>
+        <v>203460</v>
       </c>
       <c r="H53" s="19">
-        <v>219090</v>
+        <v>187753</v>
       </c>
       <c r="I53" s="19">
-        <v>203460</v>
+        <v>285180</v>
       </c>
       <c r="J53" s="19">
-        <v>187753</v>
+        <v>204180</v>
       </c>
       <c r="K53" s="19">
-        <v>285180</v>
+        <v>264054</v>
       </c>
       <c r="L53" s="19">
-        <v>204180</v>
+        <v>184020</v>
       </c>
       <c r="M53" s="19">
-        <v>264054</v>
+        <v>245124</v>
       </c>
       <c r="N53" s="19">
-        <v>184020</v>
+        <v>246801</v>
       </c>
       <c r="O53" s="19">
-        <v>245124</v>
+        <v>223327</v>
       </c>
       <c r="P53" s="19">
-        <v>246801</v>
+        <v>229397</v>
       </c>
       <c r="Q53" s="19">
-        <v>223327</v>
+        <v>278619</v>
       </c>
       <c r="R53" s="19">
-        <v>229397</v>
+        <v>307401</v>
       </c>
       <c r="S53" s="19">
-        <v>278619</v>
+        <v>247870</v>
       </c>
       <c r="T53" s="19">
-        <v>307401</v>
+        <v>201763</v>
       </c>
       <c r="U53" s="19">
-        <v>247870</v>
+        <v>289119</v>
       </c>
       <c r="V53" s="19">
-        <v>201763</v>
+        <v>251352</v>
       </c>
       <c r="W53" s="19">
-        <v>289119</v>
+        <v>287288</v>
       </c>
       <c r="X53" s="19">
-        <v>251352</v>
+        <v>267128</v>
       </c>
       <c r="Y53" s="19">
-        <v>287288</v>
+        <v>280853</v>
       </c>
       <c r="Z53" s="19">
-        <v>267128</v>
+        <v>279368</v>
       </c>
       <c r="AA53" s="19">
-        <v>280853</v>
+        <v>351366</v>
       </c>
       <c r="AB53" s="19">
-        <v>279368</v>
+        <v>387053</v>
       </c>
       <c r="AC53" s="19">
-        <v>351366</v>
+        <v>439138</v>
       </c>
       <c r="AD53" s="19">
-        <v>387053</v>
+        <v>486676</v>
       </c>
       <c r="AE53" s="19">
-        <v>439138</v>
+        <v>440571</v>
       </c>
       <c r="AF53" s="19">
-        <v>486676</v>
+        <v>390437</v>
       </c>
       <c r="AG53" s="19">
-        <v>440571</v>
+        <v>516849</v>
       </c>
       <c r="AH53" s="19">
-        <v>390437</v>
+        <v>494819</v>
       </c>
       <c r="AI53" s="19">
-        <v>516849</v>
+        <v>489786</v>
       </c>
       <c r="AJ53" s="19">
-        <v>494819</v>
+        <v>386289</v>
       </c>
       <c r="AK53" s="19">
-        <v>489786</v>
+        <v>538815</v>
       </c>
       <c r="AL53" s="19">
-        <v>386289</v>
+        <v>488175</v>
       </c>
       <c r="AM53" s="19">
-        <v>538815</v>
+        <v>554568</v>
       </c>
       <c r="AN53" s="19">
-        <v>488175</v>
+        <v>527770</v>
       </c>
       <c r="AO53" s="19">
-        <v>554568</v>
+        <v>444819</v>
       </c>
       <c r="AP53" s="19">
-        <v>527770</v>
+        <v>448902</v>
       </c>
       <c r="AQ53" s="19">
-        <v>444819</v>
+        <v>722744</v>
       </c>
       <c r="AR53" s="19">
-        <v>448902</v>
+        <v>197299</v>
       </c>
       <c r="AS53" s="19">
-        <v>722744</v>
+        <v>576435</v>
       </c>
       <c r="AT53" s="19">
-        <v>197299</v>
+        <v>782815</v>
       </c>
       <c r="AU53" s="19">
-        <v>576435</v>
+        <v>760610</v>
       </c>
       <c r="AV53" s="19">
-        <v>782815</v>
+        <v>697464</v>
       </c>
       <c r="AW53" s="19">
-        <v>760610</v>
+        <v>623246</v>
       </c>
       <c r="AX53" s="19">
-        <v>697464</v>
+        <v>535548</v>
       </c>
       <c r="AY53" s="19">
-        <v>623246</v>
+        <v>724387</v>
       </c>
       <c r="AZ53" s="19">
-        <v>535548</v>
+        <v>836051</v>
       </c>
       <c r="BA53" s="19">
-        <v>724387</v>
+        <v>715039</v>
       </c>
       <c r="BB53" s="19">
-        <v>836051</v>
+        <v>760821</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -6625,7 +6625,7 @@
       <c r="BA54" s="1"/>
       <c r="BB54" s="1"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -6680,7 +6680,7 @@
       <c r="BA55" s="1"/>
       <c r="BB55" s="1"/>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -6735,7 +6735,7 @@
       <c r="BA56" s="1"/>
       <c r="BB56" s="1"/>
     </row>
-    <row r="57" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B57" s="7" t="s">
         <v>73</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -6947,7 +6947,7 @@
       <c r="BA58" s="1"/>
       <c r="BB58" s="1"/>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
         <v>74</v>
       </c>
@@ -7004,7 +7004,7 @@
       <c r="BA59" s="9"/>
       <c r="BB59" s="9"/>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>55</v>
       </c>
@@ -7013,157 +7013,157 @@
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
-        <v>10700320</v>
+        <v>12009584</v>
       </c>
       <c r="F60" s="11">
-        <v>11944250</v>
+        <v>12165475</v>
       </c>
       <c r="G60" s="11">
-        <v>12009584</v>
+        <v>12009058</v>
       </c>
       <c r="H60" s="11">
-        <v>12165475</v>
+        <v>14050403</v>
       </c>
       <c r="I60" s="11">
-        <v>12009058</v>
+        <v>13155551</v>
       </c>
       <c r="J60" s="11">
-        <v>14050403</v>
+        <v>12592582</v>
       </c>
       <c r="K60" s="11">
-        <v>13155551</v>
+        <v>14531923</v>
       </c>
       <c r="L60" s="11">
-        <v>12592582</v>
+        <v>12547296</v>
       </c>
       <c r="M60" s="11">
-        <v>14531923</v>
+        <v>13775285</v>
       </c>
       <c r="N60" s="11">
-        <v>12547296</v>
+        <v>14323566</v>
       </c>
       <c r="O60" s="11">
-        <v>13775285</v>
+        <v>13478426</v>
       </c>
       <c r="P60" s="11">
-        <v>14323566</v>
+        <v>13849349</v>
       </c>
       <c r="Q60" s="11">
-        <v>13478426</v>
+        <v>14070639</v>
       </c>
       <c r="R60" s="11">
-        <v>13849349</v>
+        <v>14257547</v>
       </c>
       <c r="S60" s="11">
-        <v>14070639</v>
+        <v>14034518</v>
       </c>
       <c r="T60" s="11">
-        <v>14257547</v>
+        <v>12361682</v>
       </c>
       <c r="U60" s="11">
-        <v>14034518</v>
+        <v>13251745</v>
       </c>
       <c r="V60" s="11">
-        <v>12361682</v>
+        <v>12997892</v>
       </c>
       <c r="W60" s="11">
-        <v>13251745</v>
+        <v>14577455</v>
       </c>
       <c r="X60" s="11">
-        <v>12997892</v>
+        <v>15060183</v>
       </c>
       <c r="Y60" s="11">
-        <v>14577455</v>
+        <v>15087329</v>
       </c>
       <c r="Z60" s="11">
-        <v>15060183</v>
+        <v>16954699</v>
       </c>
       <c r="AA60" s="11">
-        <v>15087329</v>
+        <v>19440873</v>
       </c>
       <c r="AB60" s="11">
-        <v>16954699</v>
+        <v>21301538</v>
       </c>
       <c r="AC60" s="11">
-        <v>19440873</v>
+        <v>25703155</v>
       </c>
       <c r="AD60" s="11">
-        <v>21301538</v>
+        <v>28395577</v>
       </c>
       <c r="AE60" s="11">
-        <v>25703155</v>
+        <v>28734094</v>
       </c>
       <c r="AF60" s="11">
-        <v>28395577</v>
+        <v>25661078</v>
       </c>
       <c r="AG60" s="11">
-        <v>28734094</v>
+        <v>25614441</v>
       </c>
       <c r="AH60" s="11">
-        <v>25661078</v>
+        <v>25527894</v>
       </c>
       <c r="AI60" s="11">
-        <v>25614441</v>
+        <v>25969175</v>
       </c>
       <c r="AJ60" s="11">
-        <v>25527894</v>
+        <v>25663413</v>
       </c>
       <c r="AK60" s="11">
-        <v>25969175</v>
+        <v>25970568</v>
       </c>
       <c r="AL60" s="11">
-        <v>25663413</v>
+        <v>27286674</v>
       </c>
       <c r="AM60" s="11">
-        <v>25970568</v>
+        <v>28325657</v>
       </c>
       <c r="AN60" s="11">
-        <v>27286674</v>
+        <v>28454250</v>
       </c>
       <c r="AO60" s="11">
-        <v>28325657</v>
+        <v>28549881</v>
       </c>
       <c r="AP60" s="11">
-        <v>28454250</v>
+        <v>29407525</v>
       </c>
       <c r="AQ60" s="11">
-        <v>28549881</v>
+        <v>28468099</v>
       </c>
       <c r="AR60" s="11">
-        <v>29407525</v>
+        <v>28393636</v>
       </c>
       <c r="AS60" s="11">
-        <v>28468099</v>
+        <v>28365132</v>
       </c>
       <c r="AT60" s="11">
-        <v>28393636</v>
+        <v>29418929</v>
       </c>
       <c r="AU60" s="11">
-        <v>28365132</v>
+        <v>31150098</v>
       </c>
       <c r="AV60" s="11">
-        <v>29418929</v>
+        <v>32392377</v>
       </c>
       <c r="AW60" s="11">
-        <v>31150098</v>
+        <v>35323735</v>
       </c>
       <c r="AX60" s="11">
-        <v>32392377</v>
+        <v>35332627</v>
       </c>
       <c r="AY60" s="11">
-        <v>35323735</v>
+        <v>36024313</v>
       </c>
       <c r="AZ60" s="11">
-        <v>35332627</v>
+        <v>35618796</v>
       </c>
       <c r="BA60" s="11">
-        <v>36024313</v>
+        <v>35547294</v>
       </c>
       <c r="BB60" s="11">
-        <v>35618796</v>
+        <v>36444408</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
         <v>57</v>
       </c>
@@ -7172,154 +7172,154 @@
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="13">
-        <v>2828339</v>
+        <v>3706121</v>
       </c>
       <c r="F61" s="13">
-        <v>3488065</v>
+        <v>3341573</v>
       </c>
       <c r="G61" s="13">
-        <v>3706121</v>
+        <v>3794940</v>
       </c>
       <c r="H61" s="13">
-        <v>3341573</v>
+        <v>3903172</v>
       </c>
       <c r="I61" s="13">
-        <v>3794940</v>
+        <v>3139299</v>
       </c>
       <c r="J61" s="13">
-        <v>3903172</v>
+        <v>3277382</v>
       </c>
       <c r="K61" s="13">
-        <v>3139299</v>
+        <v>3399710</v>
       </c>
       <c r="L61" s="13">
-        <v>3277382</v>
+        <v>3728030</v>
       </c>
       <c r="M61" s="13">
-        <v>3399710</v>
+        <v>3849079</v>
       </c>
       <c r="N61" s="13">
-        <v>3728030</v>
+        <v>4280207</v>
       </c>
       <c r="O61" s="13">
-        <v>3849079</v>
+        <v>3840184</v>
       </c>
       <c r="P61" s="13">
-        <v>4280207</v>
+        <v>4134206</v>
       </c>
       <c r="Q61" s="13">
-        <v>3840184</v>
+        <v>3794912</v>
       </c>
       <c r="R61" s="13">
-        <v>4134206</v>
+        <v>4333142</v>
       </c>
       <c r="S61" s="13">
-        <v>3794912</v>
+        <v>4863021</v>
       </c>
       <c r="T61" s="13">
-        <v>4333142</v>
+        <v>4450736</v>
       </c>
       <c r="U61" s="13">
-        <v>4863021</v>
+        <v>5696746</v>
       </c>
       <c r="V61" s="13">
-        <v>4450736</v>
+        <v>5754690</v>
       </c>
       <c r="W61" s="13">
-        <v>5696746</v>
+        <v>6238462</v>
       </c>
       <c r="X61" s="13">
-        <v>5754690</v>
+        <v>7021778</v>
       </c>
       <c r="Y61" s="13">
-        <v>6238462</v>
+        <v>6626701</v>
       </c>
       <c r="Z61" s="13">
-        <v>7021778</v>
+        <v>6874092</v>
       </c>
       <c r="AA61" s="13">
-        <v>6626701</v>
+        <v>8541238</v>
       </c>
       <c r="AB61" s="13">
-        <v>6874092</v>
+        <v>9804199</v>
       </c>
       <c r="AC61" s="13">
-        <v>8541238</v>
+        <v>8373282</v>
       </c>
       <c r="AD61" s="13">
-        <v>9804199</v>
+        <v>8410578</v>
       </c>
       <c r="AE61" s="13">
-        <v>8373282</v>
+        <v>8043756</v>
       </c>
       <c r="AF61" s="13">
-        <v>8410578</v>
+        <v>8405586</v>
       </c>
       <c r="AG61" s="13">
-        <v>8043756</v>
+        <v>10227848</v>
       </c>
       <c r="AH61" s="13">
-        <v>8405586</v>
+        <v>9399403</v>
       </c>
       <c r="AI61" s="13">
-        <v>10227848</v>
+        <v>10484910</v>
       </c>
       <c r="AJ61" s="13">
-        <v>9399403</v>
+        <v>10403516</v>
       </c>
       <c r="AK61" s="13">
-        <v>10484910</v>
+        <v>10933959</v>
       </c>
       <c r="AL61" s="13">
-        <v>10403516</v>
+        <v>10813175</v>
       </c>
       <c r="AM61" s="13">
-        <v>10933959</v>
+        <v>10928439</v>
       </c>
       <c r="AN61" s="13">
-        <v>10813175</v>
+        <v>11031256</v>
       </c>
       <c r="AO61" s="13">
-        <v>10928439</v>
+        <v>12330464</v>
       </c>
       <c r="AP61" s="13">
-        <v>11031256</v>
+        <v>13005656</v>
       </c>
       <c r="AQ61" s="13">
-        <v>12330464</v>
+        <v>13115884</v>
       </c>
       <c r="AR61" s="13">
-        <v>13005656</v>
+        <v>12301157</v>
       </c>
       <c r="AS61" s="13">
-        <v>13115884</v>
+        <v>13003596</v>
       </c>
       <c r="AT61" s="13">
-        <v>12301157</v>
+        <v>12770567</v>
       </c>
       <c r="AU61" s="13">
-        <v>13003596</v>
+        <v>12344931</v>
       </c>
       <c r="AV61" s="13">
-        <v>12770567</v>
+        <v>13206456</v>
       </c>
       <c r="AW61" s="13">
-        <v>12344931</v>
+        <v>13525310</v>
       </c>
       <c r="AX61" s="13">
-        <v>13206456</v>
+        <v>13439651</v>
       </c>
       <c r="AY61" s="13">
-        <v>13525310</v>
+        <v>14852898</v>
       </c>
       <c r="AZ61" s="13">
-        <v>13439651</v>
+        <v>14985758</v>
       </c>
       <c r="BA61" s="13">
-        <v>14852898</v>
+        <v>15670127</v>
       </c>
       <c r="BB61" s="13">
-        <v>14985758</v>
+        <v>15647012</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/chemical/shamla/product/monthly.xlsx
+++ b/database/industries/chemical/shamla/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="76">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3213,154 +3213,154 @@
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12" t="n">
-        <v>15760</v>
+        <v>15201</v>
       </c>
       <c r="F11" s="12" t="n">
+        <v>15955</v>
+      </c>
+      <c r="G11" s="12" t="n">
+        <v>16125</v>
+      </c>
+      <c r="H11" s="12" t="n">
+        <v>15610</v>
+      </c>
+      <c r="I11" s="12" t="n">
+        <v>14901</v>
+      </c>
+      <c r="J11" s="12" t="n">
+        <v>15520</v>
+      </c>
+      <c r="K11" s="12" t="n">
+        <v>15635</v>
+      </c>
+      <c r="L11" s="12" t="n">
+        <v>15461</v>
+      </c>
+      <c r="M11" s="12" t="n">
+        <v>15661</v>
+      </c>
+      <c r="N11" s="12" t="n">
+        <v>15765</v>
+      </c>
+      <c r="O11" s="12" t="n">
+        <v>15971</v>
+      </c>
+      <c r="P11" s="12" t="n">
+        <v>15630</v>
+      </c>
+      <c r="Q11" s="12" t="n">
+        <v>15101</v>
+      </c>
+      <c r="R11" s="12" t="n">
+        <v>16421</v>
+      </c>
+      <c r="S11" s="12" t="n">
+        <v>16455</v>
+      </c>
+      <c r="T11" s="12" t="n">
+        <v>16312</v>
+      </c>
+      <c r="U11" s="12" t="n">
+        <v>16119</v>
+      </c>
+      <c r="V11" s="12" t="n">
+        <v>15666</v>
+      </c>
+      <c r="W11" s="12" t="n">
+        <v>15164</v>
+      </c>
+      <c r="X11" s="12" t="n">
+        <v>13518</v>
+      </c>
+      <c r="Y11" s="12" t="n">
+        <v>15652</v>
+      </c>
+      <c r="Z11" s="12" t="n">
+        <v>15520</v>
+      </c>
+      <c r="AA11" s="12" t="n">
+        <v>14333</v>
+      </c>
+      <c r="AB11" s="12" t="n">
+        <v>15334</v>
+      </c>
+      <c r="AC11" s="12" t="n">
+        <v>14519</v>
+      </c>
+      <c r="AD11" s="12" t="n">
+        <v>15701</v>
+      </c>
+      <c r="AE11" s="12" t="n">
+        <v>15287</v>
+      </c>
+      <c r="AF11" s="12" t="n">
+        <v>15735</v>
+      </c>
+      <c r="AG11" s="12" t="n">
+        <v>15625</v>
+      </c>
+      <c r="AH11" s="12" t="n">
+        <v>14959</v>
+      </c>
+      <c r="AI11" s="12" t="n">
+        <v>15595</v>
+      </c>
+      <c r="AJ11" s="12" t="n">
+        <v>15727</v>
+      </c>
+      <c r="AK11" s="12" t="n">
+        <v>15886</v>
+      </c>
+      <c r="AL11" s="12" t="n">
+        <v>15837</v>
+      </c>
+      <c r="AM11" s="12" t="n">
+        <v>15821</v>
+      </c>
+      <c r="AN11" s="12" t="n">
+        <v>15733</v>
+      </c>
+      <c r="AO11" s="12" t="n">
+        <v>15272</v>
+      </c>
+      <c r="AP11" s="12" t="n">
+        <v>15886</v>
+      </c>
+      <c r="AQ11" s="12" t="n">
+        <v>15763</v>
+      </c>
+      <c r="AR11" s="12" t="n">
+        <v>15897</v>
+      </c>
+      <c r="AS11" s="12" t="n">
+        <v>15904</v>
+      </c>
+      <c r="AT11" s="12" t="n">
+        <v>15743</v>
+      </c>
+      <c r="AU11" s="12" t="n">
+        <v>15772</v>
+      </c>
+      <c r="AV11" s="12" t="n">
+        <v>15566</v>
+      </c>
+      <c r="AW11" s="12" t="n">
+        <v>15609</v>
+      </c>
+      <c r="AX11" s="12" t="n">
+        <v>15348</v>
+      </c>
+      <c r="AY11" s="12" t="n">
         <v>15201</v>
       </c>
-      <c r="G11" s="12" t="n">
-        <v>15955</v>
-      </c>
-      <c r="H11" s="12" t="n">
-        <v>16125</v>
-      </c>
-      <c r="I11" s="12" t="n">
-        <v>15610</v>
-      </c>
-      <c r="J11" s="12" t="n">
-        <v>14901</v>
-      </c>
-      <c r="K11" s="12" t="n">
-        <v>15520</v>
-      </c>
-      <c r="L11" s="12" t="n">
-        <v>15635</v>
-      </c>
-      <c r="M11" s="12" t="n">
-        <v>15461</v>
-      </c>
-      <c r="N11" s="12" t="n">
-        <v>15661</v>
-      </c>
-      <c r="O11" s="12" t="n">
-        <v>15765</v>
-      </c>
-      <c r="P11" s="12" t="n">
-        <v>15971</v>
-      </c>
-      <c r="Q11" s="12" t="n">
-        <v>15630</v>
-      </c>
-      <c r="R11" s="12" t="n">
-        <v>15101</v>
-      </c>
-      <c r="S11" s="12" t="n">
-        <v>16421</v>
-      </c>
-      <c r="T11" s="12" t="n">
-        <v>16455</v>
-      </c>
-      <c r="U11" s="12" t="n">
-        <v>16312</v>
-      </c>
-      <c r="V11" s="12" t="n">
-        <v>16119</v>
-      </c>
-      <c r="W11" s="12" t="n">
-        <v>15666</v>
-      </c>
-      <c r="X11" s="12" t="n">
-        <v>15164</v>
-      </c>
-      <c r="Y11" s="12" t="n">
-        <v>13518</v>
-      </c>
-      <c r="Z11" s="12" t="n">
-        <v>15652</v>
-      </c>
-      <c r="AA11" s="12" t="n">
-        <v>15520</v>
-      </c>
-      <c r="AB11" s="12" t="n">
-        <v>14333</v>
-      </c>
-      <c r="AC11" s="12" t="n">
-        <v>15334</v>
-      </c>
-      <c r="AD11" s="12" t="n">
-        <v>14519</v>
-      </c>
-      <c r="AE11" s="12" t="n">
-        <v>15701</v>
-      </c>
-      <c r="AF11" s="12" t="n">
-        <v>15287</v>
-      </c>
-      <c r="AG11" s="12" t="n">
-        <v>15735</v>
-      </c>
-      <c r="AH11" s="12" t="n">
-        <v>15625</v>
-      </c>
-      <c r="AI11" s="12" t="n">
-        <v>14959</v>
-      </c>
-      <c r="AJ11" s="12" t="n">
-        <v>15595</v>
-      </c>
-      <c r="AK11" s="12" t="n">
-        <v>15727</v>
-      </c>
-      <c r="AL11" s="12" t="n">
-        <v>15886</v>
-      </c>
-      <c r="AM11" s="12" t="n">
-        <v>15837</v>
-      </c>
-      <c r="AN11" s="12" t="n">
-        <v>15821</v>
-      </c>
-      <c r="AO11" s="12" t="n">
-        <v>15733</v>
-      </c>
-      <c r="AP11" s="12" t="n">
-        <v>15272</v>
-      </c>
-      <c r="AQ11" s="12" t="n">
-        <v>15886</v>
-      </c>
-      <c r="AR11" s="12" t="n">
-        <v>15763</v>
-      </c>
-      <c r="AS11" s="12" t="n">
-        <v>15897</v>
-      </c>
-      <c r="AT11" s="12" t="n">
-        <v>15904</v>
-      </c>
-      <c r="AU11" s="12" t="n">
-        <v>15743</v>
-      </c>
-      <c r="AV11" s="12" t="n">
-        <v>15772</v>
-      </c>
-      <c r="AW11" s="12" t="n">
-        <v>15566</v>
-      </c>
-      <c r="AX11" s="12" t="n">
-        <v>15609</v>
-      </c>
-      <c r="AY11" s="12" t="n">
-        <v>15348</v>
-      </c>
       <c r="AZ11" s="12" t="n">
-        <v>15201</v>
+        <v>15280</v>
       </c>
       <c r="BA11" s="12" t="n">
-        <v>15280</v>
+        <v>14109</v>
       </c>
       <c r="BB11" s="12" t="n">
-        <v>14109</v>
+        <v>15556</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3372,154 +3372,154 @@
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="n">
-        <v>7486</v>
+        <v>7100</v>
       </c>
       <c r="F12" s="14" t="n">
-        <v>7100</v>
+        <v>4368</v>
       </c>
       <c r="G12" s="14" t="n">
-        <v>4368</v>
+        <v>7261</v>
       </c>
       <c r="H12" s="14" t="n">
-        <v>7261</v>
+        <v>7646</v>
       </c>
       <c r="I12" s="14" t="n">
-        <v>7646</v>
+        <v>8350</v>
       </c>
       <c r="J12" s="14" t="n">
-        <v>8350</v>
+        <v>7886</v>
       </c>
       <c r="K12" s="14" t="n">
-        <v>7886</v>
+        <v>7648</v>
       </c>
       <c r="L12" s="14" t="n">
-        <v>7648</v>
+        <v>6506</v>
       </c>
       <c r="M12" s="14" t="n">
-        <v>6506</v>
+        <v>6820</v>
       </c>
       <c r="N12" s="14" t="n">
-        <v>6820</v>
+        <v>7149</v>
       </c>
       <c r="O12" s="14" t="n">
-        <v>7149</v>
+        <v>7708</v>
       </c>
       <c r="P12" s="14" t="n">
-        <v>7708</v>
+        <v>7201</v>
       </c>
       <c r="Q12" s="14" t="n">
-        <v>7201</v>
+        <v>6700</v>
       </c>
       <c r="R12" s="14" t="n">
-        <v>6700</v>
+        <v>6127</v>
       </c>
       <c r="S12" s="14" t="n">
-        <v>6127</v>
+        <v>7128</v>
       </c>
       <c r="T12" s="14" t="n">
-        <v>7128</v>
+        <v>5447</v>
       </c>
       <c r="U12" s="14" t="n">
-        <v>5447</v>
+        <v>6188</v>
       </c>
       <c r="V12" s="14" t="n">
-        <v>6188</v>
+        <v>6464</v>
       </c>
       <c r="W12" s="14" t="n">
-        <v>6464</v>
+        <v>7278</v>
       </c>
       <c r="X12" s="14" t="n">
-        <v>7278</v>
+        <v>6962</v>
       </c>
       <c r="Y12" s="14" t="n">
-        <v>6962</v>
+        <v>7140</v>
       </c>
       <c r="Z12" s="14" t="n">
-        <v>7140</v>
+        <v>5766</v>
       </c>
       <c r="AA12" s="14" t="n">
-        <v>5766</v>
+        <v>6813</v>
       </c>
       <c r="AB12" s="14" t="n">
-        <v>6813</v>
+        <v>7250</v>
       </c>
       <c r="AC12" s="14" t="n">
-        <v>7250</v>
+        <v>7231</v>
       </c>
       <c r="AD12" s="14" t="n">
-        <v>7231</v>
+        <v>7300</v>
       </c>
       <c r="AE12" s="14" t="n">
-        <v>7300</v>
+        <v>7379</v>
       </c>
       <c r="AF12" s="14" t="n">
-        <v>7379</v>
+        <v>6705</v>
       </c>
       <c r="AG12" s="14" t="n">
-        <v>6705</v>
+        <v>7203</v>
       </c>
       <c r="AH12" s="14" t="n">
-        <v>7203</v>
+        <v>7805</v>
       </c>
       <c r="AI12" s="14" t="n">
-        <v>7805</v>
+        <v>9122</v>
       </c>
       <c r="AJ12" s="14" t="n">
-        <v>9122</v>
+        <v>9021</v>
       </c>
       <c r="AK12" s="14" t="n">
-        <v>9021</v>
+        <v>7377</v>
       </c>
       <c r="AL12" s="14" t="n">
-        <v>7377</v>
+        <v>10276</v>
       </c>
       <c r="AM12" s="14" t="n">
-        <v>10276</v>
+        <v>8221</v>
       </c>
       <c r="AN12" s="14" t="n">
-        <v>8221</v>
+        <v>8557</v>
       </c>
       <c r="AO12" s="14" t="n">
-        <v>8557</v>
+        <v>9734</v>
       </c>
       <c r="AP12" s="14" t="n">
-        <v>9734</v>
+        <v>5339</v>
       </c>
       <c r="AQ12" s="14" t="n">
-        <v>5339</v>
+        <v>9640</v>
       </c>
       <c r="AR12" s="14" t="n">
-        <v>9640</v>
+        <v>10301</v>
       </c>
       <c r="AS12" s="14" t="n">
-        <v>10301</v>
+        <v>11100</v>
       </c>
       <c r="AT12" s="14" t="n">
-        <v>11100</v>
+        <v>11725</v>
       </c>
       <c r="AU12" s="14" t="n">
-        <v>11725</v>
+        <v>11299</v>
       </c>
       <c r="AV12" s="14" t="n">
-        <v>11299</v>
+        <v>10400</v>
       </c>
       <c r="AW12" s="14" t="n">
-        <v>10400</v>
+        <v>9949</v>
       </c>
       <c r="AX12" s="14" t="n">
-        <v>9949</v>
+        <v>10126</v>
       </c>
       <c r="AY12" s="14" t="n">
-        <v>10126</v>
+        <v>7456</v>
       </c>
       <c r="AZ12" s="14" t="n">
-        <v>7456</v>
+        <v>6131</v>
       </c>
       <c r="BA12" s="14" t="n">
-        <v>6131</v>
+        <v>9649</v>
       </c>
       <c r="BB12" s="14" t="n">
-        <v>9649</v>
+        <v>9700</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3641,8 +3641,8 @@
       <c r="AO13" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AP13" s="15" t="s">
-        <v>59</v>
+      <c r="AP13" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="AQ13" s="15" t="n">
         <v>0</v>
@@ -3800,8 +3800,8 @@
       <c r="AO14" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AP14" s="16" t="s">
-        <v>59</v>
+      <c r="AP14" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ14" s="16" t="n">
         <v>0</v>
@@ -3951,8 +3951,8 @@
       <c r="T16" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="U16" s="20" t="s">
-        <v>59</v>
+      <c r="U16" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V16" s="20" t="n">
         <v>0</v>
@@ -4061,154 +4061,154 @@
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="22" t="n">
-        <v>23246</v>
+        <v>22301</v>
       </c>
       <c r="F17" s="22" t="n">
-        <v>22301</v>
+        <v>20323</v>
       </c>
       <c r="G17" s="22" t="n">
-        <v>20323</v>
+        <v>23386</v>
       </c>
       <c r="H17" s="22" t="n">
-        <v>23386</v>
+        <v>23256</v>
       </c>
       <c r="I17" s="22" t="n">
-        <v>23256</v>
+        <v>23251</v>
       </c>
       <c r="J17" s="22" t="n">
-        <v>23251</v>
+        <v>23406</v>
       </c>
       <c r="K17" s="22" t="n">
-        <v>23406</v>
+        <v>23283</v>
       </c>
       <c r="L17" s="22" t="n">
-        <v>23283</v>
+        <v>21967</v>
       </c>
       <c r="M17" s="22" t="n">
-        <v>21967</v>
+        <v>22481</v>
       </c>
       <c r="N17" s="22" t="n">
-        <v>22481</v>
+        <v>22914</v>
       </c>
       <c r="O17" s="22" t="n">
-        <v>22914</v>
+        <v>23679</v>
       </c>
       <c r="P17" s="22" t="n">
-        <v>23679</v>
+        <v>22831</v>
       </c>
       <c r="Q17" s="22" t="n">
-        <v>22831</v>
+        <v>21801</v>
       </c>
       <c r="R17" s="22" t="n">
-        <v>21801</v>
+        <v>22548</v>
       </c>
       <c r="S17" s="22" t="n">
-        <v>22548</v>
+        <v>23583</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>23583</v>
+        <v>21759</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>21759</v>
+        <v>22307</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>22307</v>
+        <v>22130</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>22130</v>
+        <v>22442</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>22442</v>
+        <v>20480</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>20480</v>
+        <v>22792</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>22792</v>
+        <v>21286</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>21286</v>
+        <v>21146</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>21146</v>
+        <v>22584</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>22584</v>
+        <v>21750</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>21750</v>
+        <v>23001</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>23001</v>
+        <v>22666</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>22666</v>
+        <v>22440</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>22440</v>
+        <v>22828</v>
       </c>
       <c r="AH17" s="22" t="n">
-        <v>22828</v>
+        <v>22764</v>
       </c>
       <c r="AI17" s="22" t="n">
-        <v>22764</v>
+        <v>24717</v>
       </c>
       <c r="AJ17" s="22" t="n">
-        <v>24717</v>
+        <v>24748</v>
       </c>
       <c r="AK17" s="22" t="n">
-        <v>24748</v>
+        <v>23263</v>
       </c>
       <c r="AL17" s="22" t="n">
-        <v>23263</v>
+        <v>26113</v>
       </c>
       <c r="AM17" s="22" t="n">
-        <v>26113</v>
+        <v>24042</v>
       </c>
       <c r="AN17" s="22" t="n">
-        <v>24042</v>
+        <v>24290</v>
       </c>
       <c r="AO17" s="22" t="n">
-        <v>24290</v>
+        <v>25006</v>
       </c>
       <c r="AP17" s="22" t="n">
-        <v>25006</v>
+        <v>21225</v>
       </c>
       <c r="AQ17" s="22" t="n">
-        <v>21225</v>
+        <v>25403</v>
       </c>
       <c r="AR17" s="22" t="n">
-        <v>25403</v>
+        <v>26198</v>
       </c>
       <c r="AS17" s="22" t="n">
-        <v>26198</v>
+        <v>27004</v>
       </c>
       <c r="AT17" s="22" t="n">
-        <v>27004</v>
+        <v>27468</v>
       </c>
       <c r="AU17" s="22" t="n">
-        <v>27468</v>
+        <v>27071</v>
       </c>
       <c r="AV17" s="22" t="n">
-        <v>27071</v>
+        <v>25966</v>
       </c>
       <c r="AW17" s="22" t="n">
-        <v>25966</v>
+        <v>25558</v>
       </c>
       <c r="AX17" s="22" t="n">
-        <v>25558</v>
+        <v>25474</v>
       </c>
       <c r="AY17" s="22" t="n">
-        <v>25474</v>
+        <v>22657</v>
       </c>
       <c r="AZ17" s="22" t="n">
-        <v>22657</v>
+        <v>21411</v>
       </c>
       <c r="BA17" s="22" t="n">
-        <v>21411</v>
+        <v>23758</v>
       </c>
       <c r="BB17" s="22" t="n">
-        <v>23758</v>
+        <v>25256</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4654,154 +4654,154 @@
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15" t="n">
-        <v>15809</v>
+        <v>14794</v>
       </c>
       <c r="F24" s="15" t="n">
-        <v>14794</v>
+        <v>12023</v>
       </c>
       <c r="G24" s="15" t="n">
-        <v>12023</v>
+        <v>19627</v>
       </c>
       <c r="H24" s="15" t="n">
-        <v>19627</v>
+        <v>14425</v>
       </c>
       <c r="I24" s="15" t="n">
-        <v>14425</v>
+        <v>16070</v>
       </c>
       <c r="J24" s="15" t="n">
-        <v>16070</v>
+        <v>12739</v>
       </c>
       <c r="K24" s="15" t="n">
-        <v>12739</v>
+        <v>15869</v>
       </c>
       <c r="L24" s="15" t="n">
-        <v>15869</v>
+        <v>15153</v>
       </c>
       <c r="M24" s="15" t="n">
-        <v>15153</v>
+        <v>14462</v>
       </c>
       <c r="N24" s="15" t="n">
-        <v>14462</v>
+        <v>14444</v>
       </c>
       <c r="O24" s="15" t="n">
-        <v>14444</v>
+        <v>17554</v>
       </c>
       <c r="P24" s="15" t="n">
-        <v>17554</v>
+        <v>19445</v>
       </c>
       <c r="Q24" s="15" t="n">
-        <v>19445</v>
+        <v>15615</v>
       </c>
       <c r="R24" s="15" t="n">
-        <v>15615</v>
+        <v>13581</v>
       </c>
       <c r="S24" s="15" t="n">
-        <v>13581</v>
+        <v>19202</v>
       </c>
       <c r="T24" s="15" t="n">
-        <v>19202</v>
+        <v>16600</v>
       </c>
       <c r="U24" s="15" t="n">
-        <v>16600</v>
+        <v>16926</v>
       </c>
       <c r="V24" s="15" t="n">
-        <v>16926</v>
+        <v>15104</v>
       </c>
       <c r="W24" s="15" t="n">
-        <v>15104</v>
+        <v>15516</v>
       </c>
       <c r="X24" s="15" t="n">
-        <v>15516</v>
+        <v>13576</v>
       </c>
       <c r="Y24" s="15" t="n">
-        <v>13576</v>
+        <v>15213</v>
       </c>
       <c r="Z24" s="15" t="n">
-        <v>15213</v>
+        <v>15474</v>
       </c>
       <c r="AA24" s="15" t="n">
-        <v>15474</v>
+        <v>14644</v>
       </c>
       <c r="AB24" s="15" t="n">
-        <v>14644</v>
+        <v>15011</v>
       </c>
       <c r="AC24" s="15" t="n">
-        <v>15011</v>
+        <v>13407</v>
       </c>
       <c r="AD24" s="15" t="n">
-        <v>13407</v>
+        <v>12764</v>
       </c>
       <c r="AE24" s="15" t="n">
-        <v>12764</v>
+        <v>17686</v>
       </c>
       <c r="AF24" s="15" t="n">
-        <v>17686</v>
+        <v>16545</v>
       </c>
       <c r="AG24" s="15" t="n">
-        <v>16545</v>
+        <v>16091</v>
       </c>
       <c r="AH24" s="15" t="n">
-        <v>16091</v>
+        <v>11985</v>
       </c>
       <c r="AI24" s="15" t="n">
-        <v>11985</v>
+        <v>17158</v>
       </c>
       <c r="AJ24" s="15" t="n">
-        <v>17158</v>
+        <v>14588</v>
       </c>
       <c r="AK24" s="15" t="n">
-        <v>14588</v>
+        <v>16241</v>
       </c>
       <c r="AL24" s="15" t="n">
-        <v>16241</v>
+        <v>14765</v>
       </c>
       <c r="AM24" s="15" t="n">
-        <v>14765</v>
+        <v>12219</v>
       </c>
       <c r="AN24" s="15" t="n">
-        <v>12219</v>
+        <v>11668</v>
       </c>
       <c r="AO24" s="15" t="n">
-        <v>11668</v>
+        <v>21269</v>
       </c>
       <c r="AP24" s="15" t="n">
-        <v>21269</v>
+        <v>3991</v>
       </c>
       <c r="AQ24" s="15" t="n">
-        <v>3991</v>
+        <v>15860</v>
       </c>
       <c r="AR24" s="15" t="n">
-        <v>15860</v>
+        <v>21987</v>
       </c>
       <c r="AS24" s="15" t="n">
-        <v>21987</v>
+        <v>20340</v>
       </c>
       <c r="AT24" s="15" t="n">
-        <v>20340</v>
+        <v>16581</v>
       </c>
       <c r="AU24" s="15" t="n">
-        <v>16581</v>
+        <v>13718</v>
       </c>
       <c r="AV24" s="15" t="n">
-        <v>13718</v>
+        <v>11322</v>
       </c>
       <c r="AW24" s="15" t="n">
-        <v>11322</v>
+        <v>15876</v>
       </c>
       <c r="AX24" s="15" t="n">
-        <v>15876</v>
+        <v>19100</v>
       </c>
       <c r="AY24" s="15" t="n">
-        <v>19100</v>
+        <v>15911</v>
       </c>
       <c r="AZ24" s="15" t="n">
-        <v>15911</v>
+        <v>18204</v>
       </c>
       <c r="BA24" s="15" t="n">
-        <v>18204</v>
+        <v>17276</v>
       </c>
       <c r="BB24" s="15" t="n">
-        <v>17276</v>
+        <v>16844</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4813,154 +4813,154 @@
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16" t="n">
-        <v>8010</v>
+        <v>6798</v>
       </c>
       <c r="F25" s="16" t="n">
-        <v>6798</v>
+        <v>4823</v>
       </c>
       <c r="G25" s="16" t="n">
-        <v>4823</v>
+        <v>8593</v>
       </c>
       <c r="H25" s="16" t="n">
-        <v>8593</v>
+        <v>6875</v>
       </c>
       <c r="I25" s="16" t="n">
-        <v>6875</v>
+        <v>8979</v>
       </c>
       <c r="J25" s="16" t="n">
-        <v>8979</v>
+        <v>6486</v>
       </c>
       <c r="K25" s="16" t="n">
-        <v>6486</v>
+        <v>6891</v>
       </c>
       <c r="L25" s="16" t="n">
-        <v>6891</v>
+        <v>6952</v>
       </c>
       <c r="M25" s="16" t="n">
-        <v>6952</v>
+        <v>7396</v>
       </c>
       <c r="N25" s="16" t="n">
-        <v>7396</v>
+        <v>7101</v>
       </c>
       <c r="O25" s="16" t="n">
-        <v>7101</v>
+        <v>8333</v>
       </c>
       <c r="P25" s="16" t="n">
-        <v>8333</v>
+        <v>6961</v>
       </c>
       <c r="Q25" s="16" t="n">
-        <v>6961</v>
+        <v>5906</v>
       </c>
       <c r="R25" s="16" t="n">
-        <v>5906</v>
+        <v>7612</v>
       </c>
       <c r="S25" s="16" t="n">
-        <v>7612</v>
+        <v>6084</v>
       </c>
       <c r="T25" s="16" t="n">
-        <v>6084</v>
+        <v>6184</v>
       </c>
       <c r="U25" s="16" t="n">
-        <v>6184</v>
+        <v>6500</v>
       </c>
       <c r="V25" s="16" t="n">
-        <v>6500</v>
+        <v>5648</v>
       </c>
       <c r="W25" s="16" t="n">
-        <v>5648</v>
+        <v>7056</v>
       </c>
       <c r="X25" s="16" t="n">
-        <v>7056</v>
+        <v>7156</v>
       </c>
       <c r="Y25" s="16" t="n">
-        <v>7156</v>
+        <v>6511</v>
       </c>
       <c r="Z25" s="16" t="n">
-        <v>6511</v>
+        <v>5858</v>
       </c>
       <c r="AA25" s="16" t="n">
-        <v>5858</v>
+        <v>7493</v>
       </c>
       <c r="AB25" s="16" t="n">
-        <v>7493</v>
+        <v>7185</v>
       </c>
       <c r="AC25" s="16" t="n">
-        <v>7185</v>
+        <v>6879</v>
       </c>
       <c r="AD25" s="16" t="n">
-        <v>6879</v>
+        <v>7483</v>
       </c>
       <c r="AE25" s="16" t="n">
-        <v>7483</v>
+        <v>6241</v>
       </c>
       <c r="AF25" s="16" t="n">
-        <v>6241</v>
+        <v>7709</v>
       </c>
       <c r="AG25" s="16" t="n">
-        <v>7709</v>
+        <v>6859</v>
       </c>
       <c r="AH25" s="16" t="n">
-        <v>6859</v>
+        <v>7566</v>
       </c>
       <c r="AI25" s="16" t="n">
-        <v>7566</v>
+        <v>8525</v>
       </c>
       <c r="AJ25" s="16" t="n">
-        <v>8525</v>
+        <v>8334</v>
       </c>
       <c r="AK25" s="16" t="n">
-        <v>8334</v>
+        <v>8650</v>
       </c>
       <c r="AL25" s="16" t="n">
-        <v>8650</v>
+        <v>9758</v>
       </c>
       <c r="AM25" s="16" t="n">
-        <v>9758</v>
+        <v>7783</v>
       </c>
       <c r="AN25" s="16" t="n">
-        <v>7783</v>
+        <v>8133</v>
       </c>
       <c r="AO25" s="16" t="n">
-        <v>8133</v>
+        <v>8940</v>
       </c>
       <c r="AP25" s="16" t="n">
-        <v>8940</v>
+        <v>6827</v>
       </c>
       <c r="AQ25" s="16" t="n">
-        <v>6827</v>
+        <v>9733</v>
       </c>
       <c r="AR25" s="16" t="n">
-        <v>9733</v>
+        <v>10648</v>
       </c>
       <c r="AS25" s="16" t="n">
-        <v>10648</v>
+        <v>10289</v>
       </c>
       <c r="AT25" s="16" t="n">
-        <v>10289</v>
+        <v>12143</v>
       </c>
       <c r="AU25" s="16" t="n">
-        <v>12143</v>
+        <v>10253</v>
       </c>
       <c r="AV25" s="16" t="n">
-        <v>10253</v>
+        <v>10083</v>
       </c>
       <c r="AW25" s="16" t="n">
-        <v>10083</v>
+        <v>10265</v>
       </c>
       <c r="AX25" s="16" t="n">
-        <v>10265</v>
+        <v>10392</v>
       </c>
       <c r="AY25" s="16" t="n">
-        <v>10392</v>
+        <v>9537</v>
       </c>
       <c r="AZ25" s="16" t="n">
-        <v>9537</v>
+        <v>6224</v>
       </c>
       <c r="BA25" s="16" t="n">
-        <v>6224</v>
+        <v>8286</v>
       </c>
       <c r="BB25" s="16" t="n">
-        <v>8286</v>
+        <v>12701</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5082,8 +5082,8 @@
       <c r="AO26" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AP26" s="15" t="s">
-        <v>59</v>
+      <c r="AP26" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="AQ26" s="15" t="n">
         <v>0</v>
@@ -5241,8 +5241,8 @@
       <c r="AO27" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AP27" s="16" t="s">
-        <v>59</v>
+      <c r="AP27" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ27" s="16" t="n">
         <v>0</v>
@@ -5392,8 +5392,8 @@
       <c r="T29" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="U29" s="20" t="s">
-        <v>59</v>
+      <c r="U29" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V29" s="20" t="n">
         <v>0</v>
@@ -5608,8 +5608,8 @@
       <c r="T31" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="U31" s="15" t="s">
-        <v>59</v>
+      <c r="U31" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="V31" s="15" t="n">
         <v>0</v>
@@ -5638,8 +5638,8 @@
       <c r="AD31" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AE31" s="15" t="n">
-        <v>0</v>
+      <c r="AE31" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="AF31" s="15" t="s">
         <v>59</v>
@@ -5767,8 +5767,8 @@
       <c r="T32" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U32" s="16" t="s">
-        <v>59</v>
+      <c r="U32" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V32" s="16" t="n">
         <v>0</v>
@@ -5797,8 +5797,8 @@
       <c r="AD32" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE32" s="16" t="n">
-        <v>0</v>
+      <c r="AE32" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="AF32" s="16" t="s">
         <v>59</v>
@@ -5924,8 +5924,8 @@
       <c r="T33" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="U33" s="20" t="s">
-        <v>59</v>
+      <c r="U33" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V33" s="20" t="n">
         <v>0</v>
@@ -6034,154 +6034,154 @@
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22" t="n">
-        <v>23819</v>
+        <v>21592</v>
       </c>
       <c r="F34" s="22" t="n">
-        <v>21592</v>
+        <v>16846</v>
       </c>
       <c r="G34" s="22" t="n">
-        <v>16846</v>
+        <v>28220</v>
       </c>
       <c r="H34" s="22" t="n">
-        <v>28220</v>
+        <v>21300</v>
       </c>
       <c r="I34" s="22" t="n">
-        <v>21300</v>
+        <v>25049</v>
       </c>
       <c r="J34" s="22" t="n">
-        <v>25049</v>
+        <v>19225</v>
       </c>
       <c r="K34" s="22" t="n">
-        <v>19225</v>
+        <v>22760</v>
       </c>
       <c r="L34" s="22" t="n">
-        <v>22760</v>
+        <v>22105</v>
       </c>
       <c r="M34" s="22" t="n">
-        <v>22105</v>
+        <v>21858</v>
       </c>
       <c r="N34" s="22" t="n">
-        <v>21858</v>
+        <v>21545</v>
       </c>
       <c r="O34" s="22" t="n">
-        <v>21545</v>
+        <v>25887</v>
       </c>
       <c r="P34" s="22" t="n">
-        <v>25887</v>
+        <v>26406</v>
       </c>
       <c r="Q34" s="22" t="n">
-        <v>26406</v>
+        <v>21521</v>
       </c>
       <c r="R34" s="22" t="n">
-        <v>21521</v>
+        <v>21193</v>
       </c>
       <c r="S34" s="22" t="n">
-        <v>21193</v>
+        <v>25286</v>
       </c>
       <c r="T34" s="22" t="n">
-        <v>25286</v>
+        <v>22784</v>
       </c>
       <c r="U34" s="22" t="n">
-        <v>22784</v>
+        <v>23426</v>
       </c>
       <c r="V34" s="22" t="n">
-        <v>23426</v>
+        <v>20752</v>
       </c>
       <c r="W34" s="22" t="n">
-        <v>20752</v>
+        <v>22572</v>
       </c>
       <c r="X34" s="22" t="n">
-        <v>22572</v>
+        <v>20732</v>
       </c>
       <c r="Y34" s="22" t="n">
-        <v>20732</v>
+        <v>21724</v>
       </c>
       <c r="Z34" s="22" t="n">
-        <v>21724</v>
+        <v>21332</v>
       </c>
       <c r="AA34" s="22" t="n">
-        <v>21332</v>
+        <v>22137</v>
       </c>
       <c r="AB34" s="22" t="n">
-        <v>22137</v>
+        <v>22196</v>
       </c>
       <c r="AC34" s="22" t="n">
-        <v>22196</v>
+        <v>20286</v>
       </c>
       <c r="AD34" s="22" t="n">
-        <v>20286</v>
+        <v>20247</v>
       </c>
       <c r="AE34" s="22" t="n">
-        <v>20247</v>
+        <v>23927</v>
       </c>
       <c r="AF34" s="22" t="n">
-        <v>23927</v>
+        <v>24254</v>
       </c>
       <c r="AG34" s="22" t="n">
-        <v>24254</v>
+        <v>22950</v>
       </c>
       <c r="AH34" s="22" t="n">
-        <v>22950</v>
+        <v>19551</v>
       </c>
       <c r="AI34" s="22" t="n">
-        <v>19551</v>
+        <v>25683</v>
       </c>
       <c r="AJ34" s="22" t="n">
-        <v>25683</v>
+        <v>22922</v>
       </c>
       <c r="AK34" s="22" t="n">
-        <v>22922</v>
+        <v>24891</v>
       </c>
       <c r="AL34" s="22" t="n">
-        <v>24891</v>
+        <v>24523</v>
       </c>
       <c r="AM34" s="22" t="n">
-        <v>24523</v>
+        <v>20002</v>
       </c>
       <c r="AN34" s="22" t="n">
-        <v>20002</v>
+        <v>19801</v>
       </c>
       <c r="AO34" s="22" t="n">
-        <v>19801</v>
+        <v>30209</v>
       </c>
       <c r="AP34" s="22" t="n">
-        <v>30209</v>
+        <v>10818</v>
       </c>
       <c r="AQ34" s="22" t="n">
-        <v>10818</v>
+        <v>25593</v>
       </c>
       <c r="AR34" s="22" t="n">
-        <v>25593</v>
+        <v>32635</v>
       </c>
       <c r="AS34" s="22" t="n">
-        <v>32635</v>
+        <v>30629</v>
       </c>
       <c r="AT34" s="22" t="n">
-        <v>30629</v>
+        <v>28724</v>
       </c>
       <c r="AU34" s="22" t="n">
-        <v>28724</v>
+        <v>23971</v>
       </c>
       <c r="AV34" s="22" t="n">
-        <v>23971</v>
+        <v>21405</v>
       </c>
       <c r="AW34" s="22" t="n">
-        <v>21405</v>
+        <v>26141</v>
       </c>
       <c r="AX34" s="22" t="n">
-        <v>26141</v>
+        <v>29492</v>
       </c>
       <c r="AY34" s="22" t="n">
-        <v>29492</v>
+        <v>25448</v>
       </c>
       <c r="AZ34" s="22" t="n">
-        <v>25448</v>
+        <v>24428</v>
       </c>
       <c r="BA34" s="22" t="n">
-        <v>24428</v>
+        <v>25562</v>
       </c>
       <c r="BB34" s="22" t="n">
-        <v>25562</v>
+        <v>29545</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6627,154 +6627,154 @@
       </c>
       <c r="D41" s="15"/>
       <c r="E41" s="15" t="n">
-        <v>192324</v>
+        <v>177662</v>
       </c>
       <c r="F41" s="15" t="n">
-        <v>177662</v>
+        <v>168928</v>
       </c>
       <c r="G41" s="15" t="n">
-        <v>168928</v>
+        <v>258204</v>
       </c>
       <c r="H41" s="15" t="n">
-        <v>258204</v>
+        <v>181648</v>
       </c>
       <c r="I41" s="15" t="n">
-        <v>181648</v>
+        <v>233528</v>
       </c>
       <c r="J41" s="15" t="n">
-        <v>233528</v>
+        <v>159840</v>
       </c>
       <c r="K41" s="15" t="n">
-        <v>159840</v>
+        <v>218600</v>
       </c>
       <c r="L41" s="15" t="n">
-        <v>218600</v>
+        <v>217045</v>
       </c>
       <c r="M41" s="15" t="n">
-        <v>217045</v>
+        <v>194925</v>
       </c>
       <c r="N41" s="15" t="n">
-        <v>194925</v>
+        <v>200040</v>
       </c>
       <c r="O41" s="15" t="n">
-        <v>200040</v>
+        <v>246996</v>
       </c>
       <c r="P41" s="15" t="n">
-        <v>246996</v>
+        <v>277238</v>
       </c>
       <c r="Q41" s="15" t="n">
-        <v>277238</v>
+        <v>219149</v>
       </c>
       <c r="R41" s="15" t="n">
-        <v>219149</v>
+        <v>167884</v>
       </c>
       <c r="S41" s="15" t="n">
-        <v>167884</v>
+        <v>254460</v>
       </c>
       <c r="T41" s="15" t="n">
-        <v>254460</v>
+        <v>215765</v>
       </c>
       <c r="U41" s="15" t="n">
-        <v>215765</v>
+        <v>246738</v>
       </c>
       <c r="V41" s="15" t="n">
-        <v>246738</v>
+        <v>227469</v>
       </c>
       <c r="W41" s="15" t="n">
-        <v>227469</v>
+        <v>234095</v>
       </c>
       <c r="X41" s="15" t="n">
-        <v>234095</v>
+        <v>230177</v>
       </c>
       <c r="Y41" s="15" t="n">
-        <v>230177</v>
+        <v>295754</v>
       </c>
       <c r="Z41" s="15" t="n">
-        <v>295754</v>
+        <v>329620</v>
       </c>
       <c r="AA41" s="15" t="n">
-        <v>329620</v>
+        <v>376397</v>
       </c>
       <c r="AB41" s="15" t="n">
-        <v>376397</v>
+        <v>426246</v>
       </c>
       <c r="AC41" s="15" t="n">
-        <v>426246</v>
+        <v>385238</v>
       </c>
       <c r="AD41" s="15" t="n">
-        <v>385238</v>
+        <v>327538</v>
       </c>
       <c r="AE41" s="15" t="n">
-        <v>327538</v>
+        <v>453017</v>
       </c>
       <c r="AF41" s="15" t="n">
-        <v>453017</v>
+        <v>422359</v>
       </c>
       <c r="AG41" s="15" t="n">
-        <v>422359</v>
+        <v>417870</v>
       </c>
       <c r="AH41" s="15" t="n">
-        <v>417870</v>
+        <v>307576</v>
       </c>
       <c r="AI41" s="15" t="n">
-        <v>307576</v>
+        <v>445603</v>
       </c>
       <c r="AJ41" s="15" t="n">
-        <v>445603</v>
+        <v>398058</v>
       </c>
       <c r="AK41" s="15" t="n">
-        <v>398058</v>
+        <v>460037</v>
       </c>
       <c r="AL41" s="15" t="n">
-        <v>460037</v>
+        <v>420127</v>
       </c>
       <c r="AM41" s="15" t="n">
-        <v>420127</v>
+        <v>348851</v>
       </c>
       <c r="AN41" s="15" t="n">
-        <v>348851</v>
+        <v>343127</v>
       </c>
       <c r="AO41" s="15" t="n">
-        <v>343127</v>
+        <v>605488</v>
       </c>
       <c r="AP41" s="15" t="n">
-        <v>605488</v>
+        <v>113319</v>
       </c>
       <c r="AQ41" s="15" t="n">
-        <v>113319</v>
+        <v>449871</v>
       </c>
       <c r="AR41" s="15" t="n">
-        <v>449871</v>
+        <v>646834</v>
       </c>
       <c r="AS41" s="15" t="n">
-        <v>646834</v>
+        <v>633593</v>
       </c>
       <c r="AT41" s="15" t="n">
-        <v>633593</v>
+        <v>537098</v>
       </c>
       <c r="AU41" s="15" t="n">
-        <v>537098</v>
+        <v>484571</v>
       </c>
       <c r="AV41" s="15" t="n">
-        <v>484571</v>
+        <v>400036</v>
       </c>
       <c r="AW41" s="15" t="n">
-        <v>400036</v>
+        <v>571922</v>
       </c>
       <c r="AX41" s="15" t="n">
-        <v>571922</v>
+        <v>680319</v>
       </c>
       <c r="AY41" s="15" t="n">
-        <v>680319</v>
+        <v>565593</v>
       </c>
       <c r="AZ41" s="15" t="n">
-        <v>565593</v>
+        <v>663434</v>
       </c>
       <c r="BA41" s="15" t="n">
-        <v>663434</v>
+        <v>698289</v>
       </c>
       <c r="BB41" s="15" t="n">
-        <v>698289</v>
+        <v>780252</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6786,154 +6786,154 @@
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="16" t="n">
-        <v>26766</v>
+        <v>25798</v>
       </c>
       <c r="F42" s="16" t="n">
-        <v>25798</v>
+        <v>18825</v>
       </c>
       <c r="G42" s="16" t="n">
-        <v>18825</v>
+        <v>26976</v>
       </c>
       <c r="H42" s="16" t="n">
-        <v>26976</v>
+        <v>22532</v>
       </c>
       <c r="I42" s="16" t="n">
-        <v>22532</v>
+        <v>30526</v>
       </c>
       <c r="J42" s="16" t="n">
-        <v>30526</v>
+        <v>24180</v>
       </c>
       <c r="K42" s="16" t="n">
-        <v>24180</v>
+        <v>26524</v>
       </c>
       <c r="L42" s="16" t="n">
-        <v>26524</v>
+        <v>29756</v>
       </c>
       <c r="M42" s="16" t="n">
-        <v>29756</v>
+        <v>28402</v>
       </c>
       <c r="N42" s="16" t="n">
-        <v>28402</v>
+        <v>29357</v>
       </c>
       <c r="O42" s="16" t="n">
-        <v>29357</v>
+        <v>31623</v>
       </c>
       <c r="P42" s="16" t="n">
-        <v>31623</v>
+        <v>30163</v>
       </c>
       <c r="Q42" s="16" t="n">
-        <v>30163</v>
+        <v>28721</v>
       </c>
       <c r="R42" s="16" t="n">
-        <v>28721</v>
+        <v>33879</v>
       </c>
       <c r="S42" s="16" t="n">
-        <v>33879</v>
+        <v>34659</v>
       </c>
       <c r="T42" s="16" t="n">
-        <v>34659</v>
+        <v>35587</v>
       </c>
       <c r="U42" s="16" t="n">
-        <v>35587</v>
+        <v>40550</v>
       </c>
       <c r="V42" s="16" t="n">
-        <v>40550</v>
+        <v>39659</v>
       </c>
       <c r="W42" s="16" t="n">
-        <v>39659</v>
+        <v>46758</v>
       </c>
       <c r="X42" s="16" t="n">
-        <v>46758</v>
+        <v>49191</v>
       </c>
       <c r="Y42" s="16" t="n">
-        <v>49191</v>
+        <v>55612</v>
       </c>
       <c r="Z42" s="16" t="n">
-        <v>55612</v>
+        <v>57433</v>
       </c>
       <c r="AA42" s="16" t="n">
-        <v>57433</v>
+        <v>62741</v>
       </c>
       <c r="AB42" s="16" t="n">
-        <v>62741</v>
+        <v>60430</v>
       </c>
       <c r="AC42" s="16" t="n">
-        <v>60430</v>
+        <v>55333</v>
       </c>
       <c r="AD42" s="16" t="n">
-        <v>55333</v>
+        <v>62899</v>
       </c>
       <c r="AE42" s="16" t="n">
-        <v>62899</v>
+        <v>63832</v>
       </c>
       <c r="AF42" s="16" t="n">
-        <v>63832</v>
+        <v>72460</v>
       </c>
       <c r="AG42" s="16" t="n">
-        <v>72460</v>
+        <v>71916</v>
       </c>
       <c r="AH42" s="16" t="n">
-        <v>71916</v>
+        <v>78713</v>
       </c>
       <c r="AI42" s="16" t="n">
-        <v>78713</v>
+        <v>93212</v>
       </c>
       <c r="AJ42" s="16" t="n">
-        <v>93212</v>
+        <v>90117</v>
       </c>
       <c r="AK42" s="16" t="n">
-        <v>90117</v>
+        <v>94531</v>
       </c>
       <c r="AL42" s="16" t="n">
-        <v>94531</v>
+        <v>107643</v>
       </c>
       <c r="AM42" s="16" t="n">
-        <v>107643</v>
+        <v>95968</v>
       </c>
       <c r="AN42" s="16" t="n">
-        <v>95968</v>
+        <v>105775</v>
       </c>
       <c r="AO42" s="16" t="n">
-        <v>105775</v>
+        <v>117256</v>
       </c>
       <c r="AP42" s="16" t="n">
-        <v>117256</v>
+        <v>83980</v>
       </c>
       <c r="AQ42" s="16" t="n">
-        <v>83980</v>
+        <v>126564</v>
       </c>
       <c r="AR42" s="16" t="n">
-        <v>126564</v>
+        <v>135981</v>
       </c>
       <c r="AS42" s="16" t="n">
-        <v>135981</v>
+        <v>127017</v>
       </c>
       <c r="AT42" s="16" t="n">
-        <v>127017</v>
+        <v>160366</v>
       </c>
       <c r="AU42" s="16" t="n">
-        <v>160366</v>
+        <v>138675</v>
       </c>
       <c r="AV42" s="16" t="n">
-        <v>138675</v>
+        <v>135512</v>
       </c>
       <c r="AW42" s="16" t="n">
-        <v>135512</v>
+        <v>152465</v>
       </c>
       <c r="AX42" s="16" t="n">
-        <v>152465</v>
+        <v>155732</v>
       </c>
       <c r="AY42" s="16" t="n">
-        <v>155732</v>
+        <v>149446</v>
       </c>
       <c r="AZ42" s="16" t="n">
-        <v>149446</v>
+        <v>97387</v>
       </c>
       <c r="BA42" s="16" t="n">
-        <v>97387</v>
+        <v>138272</v>
       </c>
       <c r="BB42" s="16" t="n">
-        <v>138272</v>
+        <v>172738</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7055,8 +7055,8 @@
       <c r="AO43" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AP43" s="15" t="s">
-        <v>59</v>
+      <c r="AP43" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="AQ43" s="15" t="n">
         <v>0</v>
@@ -7214,8 +7214,8 @@
       <c r="AO44" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AP44" s="16" t="s">
-        <v>59</v>
+      <c r="AP44" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ44" s="16" t="n">
         <v>0</v>
@@ -7367,8 +7367,8 @@
       <c r="T46" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="U46" s="20" t="s">
-        <v>59</v>
+      <c r="U46" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V46" s="23" t="n">
         <v>0</v>
@@ -7583,8 +7583,8 @@
       <c r="T48" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="U48" s="15" t="s">
-        <v>59</v>
+      <c r="U48" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="V48" s="15" t="n">
         <v>0</v>
@@ -7646,8 +7646,8 @@
       <c r="AO48" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AP48" s="15" t="n">
-        <v>0</v>
+      <c r="AP48" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="AQ48" s="15" t="s">
         <v>59</v>
@@ -7742,8 +7742,8 @@
       <c r="T49" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U49" s="16" t="s">
-        <v>59</v>
+      <c r="U49" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V49" s="16" t="n">
         <v>0</v>
@@ -7805,8 +7805,8 @@
       <c r="AO49" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP49" s="16" t="n">
-        <v>0</v>
+      <c r="AP49" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="AQ49" s="16" t="s">
         <v>59</v>
@@ -7901,8 +7901,8 @@
       <c r="T50" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="U50" s="20" t="s">
-        <v>59</v>
+      <c r="U50" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V50" s="23" t="n">
         <v>0</v>
@@ -8117,8 +8117,8 @@
       <c r="T52" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="U52" s="15" t="s">
-        <v>59</v>
+      <c r="U52" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="V52" s="15" t="n">
         <v>0</v>
@@ -8227,154 +8227,154 @@
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
       <c r="E53" s="22" t="n">
-        <v>219090</v>
+        <v>203460</v>
       </c>
       <c r="F53" s="22" t="n">
-        <v>203460</v>
+        <v>187753</v>
       </c>
       <c r="G53" s="22" t="n">
-        <v>187753</v>
+        <v>285180</v>
       </c>
       <c r="H53" s="22" t="n">
-        <v>285180</v>
+        <v>204180</v>
       </c>
       <c r="I53" s="22" t="n">
-        <v>204180</v>
+        <v>264054</v>
       </c>
       <c r="J53" s="22" t="n">
-        <v>264054</v>
+        <v>184020</v>
       </c>
       <c r="K53" s="22" t="n">
-        <v>184020</v>
+        <v>245124</v>
       </c>
       <c r="L53" s="22" t="n">
-        <v>245124</v>
+        <v>246801</v>
       </c>
       <c r="M53" s="22" t="n">
-        <v>246801</v>
+        <v>223327</v>
       </c>
       <c r="N53" s="22" t="n">
-        <v>223327</v>
+        <v>229397</v>
       </c>
       <c r="O53" s="22" t="n">
-        <v>229397</v>
+        <v>278619</v>
       </c>
       <c r="P53" s="22" t="n">
-        <v>278619</v>
+        <v>307401</v>
       </c>
       <c r="Q53" s="22" t="n">
-        <v>307401</v>
+        <v>247870</v>
       </c>
       <c r="R53" s="22" t="n">
-        <v>247870</v>
+        <v>201763</v>
       </c>
       <c r="S53" s="22" t="n">
-        <v>201763</v>
+        <v>289119</v>
       </c>
       <c r="T53" s="22" t="n">
-        <v>289119</v>
+        <v>251352</v>
       </c>
       <c r="U53" s="22" t="n">
-        <v>251352</v>
+        <v>287288</v>
       </c>
       <c r="V53" s="22" t="n">
-        <v>287288</v>
+        <v>267128</v>
       </c>
       <c r="W53" s="22" t="n">
-        <v>267128</v>
+        <v>280853</v>
       </c>
       <c r="X53" s="22" t="n">
-        <v>280853</v>
+        <v>279368</v>
       </c>
       <c r="Y53" s="22" t="n">
-        <v>279368</v>
+        <v>351366</v>
       </c>
       <c r="Z53" s="22" t="n">
-        <v>351366</v>
+        <v>387053</v>
       </c>
       <c r="AA53" s="22" t="n">
-        <v>387053</v>
+        <v>439138</v>
       </c>
       <c r="AB53" s="22" t="n">
-        <v>439138</v>
+        <v>486676</v>
       </c>
       <c r="AC53" s="22" t="n">
-        <v>486676</v>
+        <v>440571</v>
       </c>
       <c r="AD53" s="22" t="n">
-        <v>440571</v>
+        <v>390437</v>
       </c>
       <c r="AE53" s="22" t="n">
-        <v>390437</v>
+        <v>516849</v>
       </c>
       <c r="AF53" s="22" t="n">
-        <v>516849</v>
+        <v>494819</v>
       </c>
       <c r="AG53" s="22" t="n">
-        <v>494819</v>
+        <v>489786</v>
       </c>
       <c r="AH53" s="22" t="n">
-        <v>489786</v>
+        <v>386289</v>
       </c>
       <c r="AI53" s="22" t="n">
-        <v>386289</v>
+        <v>538815</v>
       </c>
       <c r="AJ53" s="22" t="n">
-        <v>538815</v>
+        <v>488175</v>
       </c>
       <c r="AK53" s="22" t="n">
-        <v>488175</v>
+        <v>554568</v>
       </c>
       <c r="AL53" s="22" t="n">
-        <v>554568</v>
+        <v>527770</v>
       </c>
       <c r="AM53" s="22" t="n">
-        <v>527770</v>
+        <v>444819</v>
       </c>
       <c r="AN53" s="22" t="n">
-        <v>444819</v>
+        <v>448902</v>
       </c>
       <c r="AO53" s="22" t="n">
-        <v>448902</v>
+        <v>722744</v>
       </c>
       <c r="AP53" s="22" t="n">
-        <v>722744</v>
+        <v>197299</v>
       </c>
       <c r="AQ53" s="22" t="n">
-        <v>197299</v>
+        <v>576435</v>
       </c>
       <c r="AR53" s="22" t="n">
-        <v>576435</v>
+        <v>782815</v>
       </c>
       <c r="AS53" s="22" t="n">
-        <v>782815</v>
+        <v>760610</v>
       </c>
       <c r="AT53" s="22" t="n">
-        <v>760610</v>
+        <v>697464</v>
       </c>
       <c r="AU53" s="22" t="n">
-        <v>697464</v>
+        <v>623246</v>
       </c>
       <c r="AV53" s="22" t="n">
-        <v>623246</v>
+        <v>535548</v>
       </c>
       <c r="AW53" s="22" t="n">
-        <v>535548</v>
+        <v>724387</v>
       </c>
       <c r="AX53" s="22" t="n">
-        <v>724387</v>
+        <v>836051</v>
       </c>
       <c r="AY53" s="22" t="n">
-        <v>836051</v>
+        <v>715039</v>
       </c>
       <c r="AZ53" s="22" t="n">
-        <v>715039</v>
+        <v>760821</v>
       </c>
       <c r="BA53" s="22" t="n">
-        <v>760821</v>
+        <v>836561</v>
       </c>
       <c r="BB53" s="22" t="n">
-        <v>836561</v>
+        <v>952990</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8820,154 +8820,154 @@
       </c>
       <c r="D60" s="15"/>
       <c r="E60" s="15" t="n">
-        <v>12165475</v>
+        <v>12009058</v>
       </c>
       <c r="F60" s="15" t="n">
-        <v>12009058</v>
+        <v>14050403</v>
       </c>
       <c r="G60" s="15" t="n">
-        <v>14050403</v>
+        <v>13155551</v>
       </c>
       <c r="H60" s="15" t="n">
-        <v>13155551</v>
+        <v>12592582</v>
       </c>
       <c r="I60" s="15" t="n">
-        <v>12592582</v>
+        <v>14531923</v>
       </c>
       <c r="J60" s="15" t="n">
-        <v>14531923</v>
+        <v>12547296</v>
       </c>
       <c r="K60" s="15" t="n">
-        <v>12547296</v>
+        <v>13775285</v>
       </c>
       <c r="L60" s="15" t="n">
-        <v>13775285</v>
+        <v>14323566</v>
       </c>
       <c r="M60" s="15" t="n">
-        <v>14323566</v>
+        <v>13478426</v>
       </c>
       <c r="N60" s="15" t="n">
-        <v>13478426</v>
+        <v>13849349</v>
       </c>
       <c r="O60" s="15" t="n">
-        <v>13849349</v>
+        <v>14070639</v>
       </c>
       <c r="P60" s="15" t="n">
-        <v>14070639</v>
+        <v>14257547</v>
       </c>
       <c r="Q60" s="15" t="n">
-        <v>14257547</v>
+        <v>14034518</v>
       </c>
       <c r="R60" s="15" t="n">
-        <v>14034518</v>
+        <v>12361682</v>
       </c>
       <c r="S60" s="15" t="n">
-        <v>12361682</v>
+        <v>13251745</v>
       </c>
       <c r="T60" s="15" t="n">
-        <v>13251745</v>
+        <v>12997892</v>
       </c>
       <c r="U60" s="15" t="n">
-        <v>12997892</v>
+        <v>14577455</v>
       </c>
       <c r="V60" s="15" t="n">
-        <v>14577455</v>
+        <v>15060183</v>
       </c>
       <c r="W60" s="15" t="n">
-        <v>15060183</v>
+        <v>15087329</v>
       </c>
       <c r="X60" s="15" t="n">
-        <v>15087329</v>
+        <v>16954699</v>
       </c>
       <c r="Y60" s="15" t="n">
-        <v>16954699</v>
+        <v>19440873</v>
       </c>
       <c r="Z60" s="15" t="n">
-        <v>19440873</v>
+        <v>21301538</v>
       </c>
       <c r="AA60" s="15" t="n">
-        <v>21301538</v>
+        <v>25703155</v>
       </c>
       <c r="AB60" s="15" t="n">
-        <v>25703155</v>
+        <v>28395577</v>
       </c>
       <c r="AC60" s="15" t="n">
-        <v>28395577</v>
+        <v>28734094</v>
       </c>
       <c r="AD60" s="15" t="n">
-        <v>28734094</v>
+        <v>25661078</v>
       </c>
       <c r="AE60" s="15" t="n">
-        <v>25661078</v>
+        <v>25614441</v>
       </c>
       <c r="AF60" s="15" t="n">
-        <v>25614441</v>
+        <v>25527894</v>
       </c>
       <c r="AG60" s="15" t="n">
-        <v>25527894</v>
+        <v>25969175</v>
       </c>
       <c r="AH60" s="15" t="n">
-        <v>25969175</v>
+        <v>25663413</v>
       </c>
       <c r="AI60" s="15" t="n">
-        <v>25663413</v>
+        <v>25970568</v>
       </c>
       <c r="AJ60" s="15" t="n">
-        <v>25970568</v>
+        <v>27286674</v>
       </c>
       <c r="AK60" s="15" t="n">
-        <v>27286674</v>
+        <v>28325657</v>
       </c>
       <c r="AL60" s="15" t="n">
-        <v>28325657</v>
+        <v>28454250</v>
       </c>
       <c r="AM60" s="15" t="n">
-        <v>28454250</v>
+        <v>28549881</v>
       </c>
       <c r="AN60" s="15" t="n">
-        <v>28549881</v>
+        <v>29407525</v>
       </c>
       <c r="AO60" s="15" t="n">
-        <v>29407525</v>
+        <v>28468099</v>
       </c>
       <c r="AP60" s="15" t="n">
-        <v>28468099</v>
+        <v>28393636</v>
       </c>
       <c r="AQ60" s="15" t="n">
-        <v>28393636</v>
+        <v>28365132</v>
       </c>
       <c r="AR60" s="15" t="n">
-        <v>28365132</v>
+        <v>29418929</v>
       </c>
       <c r="AS60" s="15" t="n">
-        <v>29418929</v>
+        <v>31150098</v>
       </c>
       <c r="AT60" s="15" t="n">
-        <v>31150098</v>
+        <v>32392377</v>
       </c>
       <c r="AU60" s="15" t="n">
-        <v>32392377</v>
+        <v>35323735</v>
       </c>
       <c r="AV60" s="15" t="n">
-        <v>35323735</v>
+        <v>35332627</v>
       </c>
       <c r="AW60" s="15" t="n">
-        <v>35332627</v>
+        <v>36024313</v>
       </c>
       <c r="AX60" s="15" t="n">
-        <v>36024313</v>
+        <v>35618796</v>
       </c>
       <c r="AY60" s="15" t="n">
-        <v>35618796</v>
+        <v>35547294</v>
       </c>
       <c r="AZ60" s="15" t="n">
-        <v>35547294</v>
+        <v>36444408</v>
       </c>
       <c r="BA60" s="15" t="n">
-        <v>36444408</v>
+        <v>40419599</v>
       </c>
       <c r="BB60" s="15" t="n">
-        <v>40419599</v>
+        <v>46322251</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8979,154 +8979,154 @@
       </c>
       <c r="D61" s="16"/>
       <c r="E61" s="16" t="n">
-        <v>3341573</v>
+        <v>3794940</v>
       </c>
       <c r="F61" s="16" t="n">
-        <v>3794940</v>
+        <v>3903172</v>
       </c>
       <c r="G61" s="16" t="n">
-        <v>3903172</v>
+        <v>3139299</v>
       </c>
       <c r="H61" s="16" t="n">
-        <v>3139299</v>
+        <v>3277382</v>
       </c>
       <c r="I61" s="16" t="n">
-        <v>3277382</v>
+        <v>3399710</v>
       </c>
       <c r="J61" s="16" t="n">
-        <v>3399710</v>
+        <v>3728030</v>
       </c>
       <c r="K61" s="16" t="n">
-        <v>3728030</v>
+        <v>3849079</v>
       </c>
       <c r="L61" s="16" t="n">
-        <v>3849079</v>
+        <v>4280207</v>
       </c>
       <c r="M61" s="16" t="n">
-        <v>4280207</v>
+        <v>3840184</v>
       </c>
       <c r="N61" s="16" t="n">
-        <v>3840184</v>
+        <v>4134206</v>
       </c>
       <c r="O61" s="16" t="n">
-        <v>4134206</v>
+        <v>3794912</v>
       </c>
       <c r="P61" s="16" t="n">
-        <v>3794912</v>
+        <v>4333142</v>
       </c>
       <c r="Q61" s="16" t="n">
-        <v>4333142</v>
+        <v>4863021</v>
       </c>
       <c r="R61" s="16" t="n">
-        <v>4863021</v>
+        <v>4450736</v>
       </c>
       <c r="S61" s="16" t="n">
-        <v>4450736</v>
+        <v>5696746</v>
       </c>
       <c r="T61" s="16" t="n">
-        <v>5696746</v>
+        <v>5754690</v>
       </c>
       <c r="U61" s="16" t="n">
-        <v>5754690</v>
+        <v>6238462</v>
       </c>
       <c r="V61" s="16" t="n">
-        <v>6238462</v>
+        <v>7021778</v>
       </c>
       <c r="W61" s="16" t="n">
-        <v>7021778</v>
+        <v>6626701</v>
       </c>
       <c r="X61" s="16" t="n">
-        <v>6626701</v>
+        <v>6874092</v>
       </c>
       <c r="Y61" s="16" t="n">
-        <v>6874092</v>
+        <v>8541238</v>
       </c>
       <c r="Z61" s="16" t="n">
-        <v>8541238</v>
+        <v>9804199</v>
       </c>
       <c r="AA61" s="16" t="n">
-        <v>9804199</v>
+        <v>8373282</v>
       </c>
       <c r="AB61" s="16" t="n">
-        <v>8373282</v>
+        <v>8410578</v>
       </c>
       <c r="AC61" s="16" t="n">
-        <v>8410578</v>
+        <v>8043756</v>
       </c>
       <c r="AD61" s="16" t="n">
-        <v>8043756</v>
+        <v>8405586</v>
       </c>
       <c r="AE61" s="16" t="n">
-        <v>8405586</v>
+        <v>10227848</v>
       </c>
       <c r="AF61" s="16" t="n">
-        <v>10227848</v>
+        <v>9399403</v>
       </c>
       <c r="AG61" s="16" t="n">
-        <v>9399403</v>
+        <v>10484910</v>
       </c>
       <c r="AH61" s="16" t="n">
-        <v>10484910</v>
+        <v>10403516</v>
       </c>
       <c r="AI61" s="16" t="n">
-        <v>10403516</v>
+        <v>10933959</v>
       </c>
       <c r="AJ61" s="16" t="n">
-        <v>10933959</v>
+        <v>10813175</v>
       </c>
       <c r="AK61" s="16" t="n">
-        <v>10813175</v>
+        <v>10928439</v>
       </c>
       <c r="AL61" s="16" t="n">
-        <v>10928439</v>
+        <v>11031256</v>
       </c>
       <c r="AM61" s="16" t="n">
-        <v>11031256</v>
+        <v>12330464</v>
       </c>
       <c r="AN61" s="16" t="n">
-        <v>12330464</v>
+        <v>13005656</v>
       </c>
       <c r="AO61" s="16" t="n">
-        <v>13005656</v>
+        <v>13115884</v>
       </c>
       <c r="AP61" s="16" t="n">
-        <v>13115884</v>
+        <v>12301157</v>
       </c>
       <c r="AQ61" s="16" t="n">
-        <v>12301157</v>
+        <v>13003596</v>
       </c>
       <c r="AR61" s="16" t="n">
-        <v>13003596</v>
+        <v>12770567</v>
       </c>
       <c r="AS61" s="16" t="n">
-        <v>12770567</v>
+        <v>12344931</v>
       </c>
       <c r="AT61" s="16" t="n">
-        <v>12344931</v>
+        <v>13206456</v>
       </c>
       <c r="AU61" s="16" t="n">
-        <v>13206456</v>
+        <v>13525310</v>
       </c>
       <c r="AV61" s="16" t="n">
-        <v>13525310</v>
+        <v>13439651</v>
       </c>
       <c r="AW61" s="16" t="n">
-        <v>13439651</v>
+        <v>14852898</v>
       </c>
       <c r="AX61" s="16" t="n">
-        <v>14852898</v>
+        <v>14985758</v>
       </c>
       <c r="AY61" s="16" t="n">
-        <v>14985758</v>
+        <v>15670127</v>
       </c>
       <c r="AZ61" s="16" t="n">
-        <v>15670127</v>
+        <v>15647012</v>
       </c>
       <c r="BA61" s="16" t="n">
-        <v>15647012</v>
+        <v>16687425</v>
       </c>
       <c r="BB61" s="16" t="n">
-        <v>16687425</v>
+        <v>13600346</v>
       </c>
     </row>
   </sheetData>
